--- a/habitat_quality_scores.xlsx
+++ b/habitat_quality_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="900">
   <si>
     <t>ReachName</t>
   </si>
@@ -3203,6 +3203,9 @@
       <c r="F2" t="s">
         <v>897</v>
       </c>
+      <c r="G2" t="s">
+        <v>896</v>
+      </c>
       <c r="N2">
         <v>5</v>
       </c>
@@ -3238,6 +3241,9 @@
       <c r="F3" t="s">
         <v>897</v>
       </c>
+      <c r="G3" t="s">
+        <v>896</v>
+      </c>
       <c r="N3">
         <v>5</v>
       </c>
@@ -3273,6 +3279,9 @@
       <c r="F4" t="s">
         <v>897</v>
       </c>
+      <c r="G4" t="s">
+        <v>896</v>
+      </c>
       <c r="H4">
         <v>1</v>
       </c>
@@ -3334,6 +3343,9 @@
       </c>
       <c r="F5" t="s">
         <v>897</v>
+      </c>
+      <c r="G5" t="s">
+        <v>896</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3406,6 +3418,9 @@
       <c r="F6" t="s">
         <v>897</v>
       </c>
+      <c r="G6" t="s">
+        <v>897</v>
+      </c>
       <c r="H6" t="s">
         <v>898</v>
       </c>
@@ -3506,6 +3521,9 @@
       </c>
       <c r="F7" t="s">
         <v>897</v>
+      </c>
+      <c r="G7" t="s">
+        <v>896</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -3542,6 +3560,9 @@
       <c r="F8" t="s">
         <v>897</v>
       </c>
+      <c r="G8" t="s">
+        <v>896</v>
+      </c>
       <c r="N8">
         <v>1</v>
       </c>
@@ -3577,6 +3598,9 @@
       <c r="F9" t="s">
         <v>897</v>
       </c>
+      <c r="G9" t="s">
+        <v>896</v>
+      </c>
       <c r="N9">
         <v>5</v>
       </c>
@@ -3612,6 +3636,9 @@
       <c r="F10" t="s">
         <v>897</v>
       </c>
+      <c r="G10" t="s">
+        <v>896</v>
+      </c>
       <c r="N10">
         <v>5</v>
       </c>
@@ -3647,6 +3674,9 @@
       <c r="F11" t="s">
         <v>897</v>
       </c>
+      <c r="G11" t="s">
+        <v>896</v>
+      </c>
       <c r="N11">
         <v>5</v>
       </c>
@@ -3682,6 +3712,9 @@
       <c r="F12" t="s">
         <v>897</v>
       </c>
+      <c r="G12" t="s">
+        <v>896</v>
+      </c>
       <c r="N12">
         <v>5</v>
       </c>
@@ -3717,6 +3750,9 @@
       <c r="F13" t="s">
         <v>897</v>
       </c>
+      <c r="G13" t="s">
+        <v>896</v>
+      </c>
       <c r="H13" t="s">
         <v>898</v>
       </c>
@@ -3770,6 +3806,9 @@
       <c r="F14" t="s">
         <v>896</v>
       </c>
+      <c r="G14" t="s">
+        <v>896</v>
+      </c>
       <c r="H14" t="s">
         <v>898</v>
       </c>
@@ -3823,6 +3862,9 @@
       <c r="F15" t="s">
         <v>896</v>
       </c>
+      <c r="G15" t="s">
+        <v>896</v>
+      </c>
       <c r="H15" t="s">
         <v>898</v>
       </c>
@@ -3876,6 +3918,9 @@
       <c r="F16" t="s">
         <v>896</v>
       </c>
+      <c r="G16" t="s">
+        <v>896</v>
+      </c>
       <c r="H16" t="s">
         <v>898</v>
       </c>
@@ -3929,6 +3974,9 @@
       <c r="F17" t="s">
         <v>896</v>
       </c>
+      <c r="G17" t="s">
+        <v>896</v>
+      </c>
       <c r="H17" t="s">
         <v>898</v>
       </c>
@@ -3982,6 +4030,9 @@
       <c r="F18" t="s">
         <v>896</v>
       </c>
+      <c r="G18" t="s">
+        <v>896</v>
+      </c>
       <c r="H18" t="s">
         <v>898</v>
       </c>
@@ -4035,6 +4086,9 @@
       <c r="F19" t="s">
         <v>897</v>
       </c>
+      <c r="G19" t="s">
+        <v>896</v>
+      </c>
       <c r="H19">
         <v>1</v>
       </c>
@@ -4088,6 +4142,9 @@
       <c r="F20" t="s">
         <v>897</v>
       </c>
+      <c r="G20" t="s">
+        <v>896</v>
+      </c>
       <c r="H20">
         <v>1</v>
       </c>
@@ -4159,6 +4216,9 @@
       <c r="F21" t="s">
         <v>897</v>
       </c>
+      <c r="G21" t="s">
+        <v>897</v>
+      </c>
       <c r="H21">
         <v>2</v>
       </c>
@@ -4260,6 +4320,9 @@
       <c r="F22" t="s">
         <v>897</v>
       </c>
+      <c r="G22" t="s">
+        <v>897</v>
+      </c>
       <c r="H22">
         <v>2</v>
       </c>
@@ -4361,6 +4424,9 @@
       <c r="F23" t="s">
         <v>897</v>
       </c>
+      <c r="G23" t="s">
+        <v>897</v>
+      </c>
       <c r="H23">
         <v>2</v>
       </c>
@@ -4462,6 +4528,9 @@
       <c r="F24" t="s">
         <v>897</v>
       </c>
+      <c r="G24" t="s">
+        <v>897</v>
+      </c>
       <c r="H24">
         <v>2</v>
       </c>
@@ -4563,6 +4632,9 @@
       <c r="F25" t="s">
         <v>897</v>
       </c>
+      <c r="G25" t="s">
+        <v>897</v>
+      </c>
       <c r="H25">
         <v>2</v>
       </c>
@@ -4664,6 +4736,9 @@
       <c r="F26" t="s">
         <v>897</v>
       </c>
+      <c r="G26" t="s">
+        <v>897</v>
+      </c>
       <c r="H26">
         <v>2</v>
       </c>
@@ -4765,6 +4840,9 @@
       <c r="F27" t="s">
         <v>897</v>
       </c>
+      <c r="G27" t="s">
+        <v>897</v>
+      </c>
       <c r="H27">
         <v>2</v>
       </c>
@@ -4866,6 +4944,9 @@
       <c r="F28" t="s">
         <v>897</v>
       </c>
+      <c r="G28" t="s">
+        <v>897</v>
+      </c>
       <c r="H28">
         <v>2</v>
       </c>
@@ -4967,6 +5048,9 @@
       <c r="F29" t="s">
         <v>897</v>
       </c>
+      <c r="G29" t="s">
+        <v>897</v>
+      </c>
       <c r="H29">
         <v>3</v>
       </c>
@@ -5068,6 +5152,9 @@
       <c r="F30" t="s">
         <v>897</v>
       </c>
+      <c r="G30" t="s">
+        <v>897</v>
+      </c>
       <c r="H30">
         <v>3</v>
       </c>
@@ -5169,6 +5256,9 @@
       <c r="F31" t="s">
         <v>897</v>
       </c>
+      <c r="G31" t="s">
+        <v>897</v>
+      </c>
       <c r="H31">
         <v>3</v>
       </c>
@@ -5270,6 +5360,9 @@
       <c r="F32" t="s">
         <v>897</v>
       </c>
+      <c r="G32" t="s">
+        <v>897</v>
+      </c>
       <c r="H32">
         <v>3</v>
       </c>
@@ -5323,6 +5416,9 @@
       <c r="F33" t="s">
         <v>897</v>
       </c>
+      <c r="G33" t="s">
+        <v>897</v>
+      </c>
       <c r="H33" t="s">
         <v>898</v>
       </c>
@@ -5376,6 +5472,9 @@
       <c r="F34" t="s">
         <v>896</v>
       </c>
+      <c r="G34" t="s">
+        <v>896</v>
+      </c>
       <c r="H34" t="s">
         <v>898</v>
       </c>
@@ -5429,6 +5528,9 @@
       <c r="F35" t="s">
         <v>896</v>
       </c>
+      <c r="G35" t="s">
+        <v>896</v>
+      </c>
       <c r="H35" t="s">
         <v>898</v>
       </c>
@@ -5482,6 +5584,9 @@
       <c r="F36" t="s">
         <v>896</v>
       </c>
+      <c r="G36" t="s">
+        <v>896</v>
+      </c>
       <c r="H36" t="s">
         <v>898</v>
       </c>
@@ -5535,6 +5640,9 @@
       <c r="F37" t="s">
         <v>896</v>
       </c>
+      <c r="G37" t="s">
+        <v>896</v>
+      </c>
       <c r="H37" t="s">
         <v>898</v>
       </c>
@@ -5588,6 +5696,9 @@
       <c r="F38" t="s">
         <v>897</v>
       </c>
+      <c r="G38" t="s">
+        <v>896</v>
+      </c>
       <c r="H38">
         <v>3</v>
       </c>
@@ -5641,6 +5752,9 @@
       <c r="F39" t="s">
         <v>897</v>
       </c>
+      <c r="G39" t="s">
+        <v>897</v>
+      </c>
       <c r="H39">
         <v>2</v>
       </c>
@@ -5712,6 +5826,9 @@
       <c r="F40" t="s">
         <v>897</v>
       </c>
+      <c r="G40" t="s">
+        <v>897</v>
+      </c>
       <c r="H40">
         <v>2</v>
       </c>
@@ -5783,6 +5900,9 @@
       <c r="F41" t="s">
         <v>897</v>
       </c>
+      <c r="G41" t="s">
+        <v>897</v>
+      </c>
       <c r="H41">
         <v>2</v>
       </c>
@@ -5836,6 +5956,9 @@
       <c r="F42" t="s">
         <v>897</v>
       </c>
+      <c r="G42" t="s">
+        <v>896</v>
+      </c>
       <c r="H42">
         <v>2</v>
       </c>
@@ -5889,6 +6012,9 @@
       <c r="F43" t="s">
         <v>897</v>
       </c>
+      <c r="G43" t="s">
+        <v>897</v>
+      </c>
       <c r="H43" t="s">
         <v>898</v>
       </c>
@@ -5942,6 +6068,9 @@
       <c r="F44" t="s">
         <v>897</v>
       </c>
+      <c r="G44" t="s">
+        <v>896</v>
+      </c>
       <c r="H44" t="s">
         <v>898</v>
       </c>
@@ -5995,6 +6124,9 @@
       <c r="F45" t="s">
         <v>897</v>
       </c>
+      <c r="G45" t="s">
+        <v>896</v>
+      </c>
       <c r="H45" t="s">
         <v>898</v>
       </c>
@@ -6048,6 +6180,9 @@
       <c r="F46" t="s">
         <v>897</v>
       </c>
+      <c r="G46" t="s">
+        <v>896</v>
+      </c>
       <c r="H46" t="s">
         <v>898</v>
       </c>
@@ -6101,6 +6236,9 @@
       <c r="F47" t="s">
         <v>896</v>
       </c>
+      <c r="G47" t="s">
+        <v>897</v>
+      </c>
       <c r="H47">
         <v>3</v>
       </c>
@@ -6154,6 +6292,9 @@
       <c r="F48" t="s">
         <v>897</v>
       </c>
+      <c r="G48" t="s">
+        <v>896</v>
+      </c>
       <c r="N48">
         <v>5</v>
       </c>
@@ -6189,6 +6330,9 @@
       <c r="F49" t="s">
         <v>897</v>
       </c>
+      <c r="G49" t="s">
+        <v>897</v>
+      </c>
       <c r="H49">
         <v>2</v>
       </c>
@@ -6290,6 +6434,9 @@
       <c r="F50" t="s">
         <v>897</v>
       </c>
+      <c r="G50" t="s">
+        <v>897</v>
+      </c>
       <c r="H50">
         <v>2</v>
       </c>
@@ -6343,6 +6490,9 @@
       <c r="F51" t="s">
         <v>897</v>
       </c>
+      <c r="G51" t="s">
+        <v>897</v>
+      </c>
       <c r="H51">
         <v>1</v>
       </c>
@@ -6396,6 +6546,9 @@
       <c r="F52" t="s">
         <v>896</v>
       </c>
+      <c r="G52" t="s">
+        <v>896</v>
+      </c>
       <c r="H52">
         <v>1</v>
       </c>
@@ -6449,6 +6602,9 @@
       <c r="F53" t="s">
         <v>897</v>
       </c>
+      <c r="G53" t="s">
+        <v>896</v>
+      </c>
       <c r="H53">
         <v>1</v>
       </c>
@@ -6502,6 +6658,9 @@
       <c r="F54" t="s">
         <v>897</v>
       </c>
+      <c r="G54" t="s">
+        <v>896</v>
+      </c>
       <c r="H54">
         <v>1</v>
       </c>
@@ -6555,6 +6714,9 @@
       <c r="F55" t="s">
         <v>896</v>
       </c>
+      <c r="G55" t="s">
+        <v>897</v>
+      </c>
       <c r="H55">
         <v>3</v>
       </c>
@@ -6608,6 +6770,9 @@
       <c r="F56" t="s">
         <v>897</v>
       </c>
+      <c r="G56" t="s">
+        <v>896</v>
+      </c>
       <c r="H56">
         <v>1</v>
       </c>
@@ -6661,6 +6826,9 @@
       <c r="F57" t="s">
         <v>897</v>
       </c>
+      <c r="G57" t="s">
+        <v>897</v>
+      </c>
       <c r="H57">
         <v>3</v>
       </c>
@@ -6714,6 +6882,9 @@
       <c r="F58" t="s">
         <v>897</v>
       </c>
+      <c r="G58" t="s">
+        <v>897</v>
+      </c>
       <c r="H58">
         <v>3</v>
       </c>
@@ -6767,6 +6938,9 @@
       <c r="F59" t="s">
         <v>897</v>
       </c>
+      <c r="G59" t="s">
+        <v>897</v>
+      </c>
       <c r="H59">
         <v>3</v>
       </c>
@@ -6820,6 +6994,9 @@
       <c r="F60" t="s">
         <v>897</v>
       </c>
+      <c r="G60" t="s">
+        <v>897</v>
+      </c>
       <c r="H60">
         <v>3</v>
       </c>
@@ -6873,6 +7050,9 @@
       <c r="F61" t="s">
         <v>897</v>
       </c>
+      <c r="G61" t="s">
+        <v>897</v>
+      </c>
       <c r="H61">
         <v>3</v>
       </c>
@@ -6926,6 +7106,9 @@
       <c r="F62" t="s">
         <v>897</v>
       </c>
+      <c r="G62" t="s">
+        <v>897</v>
+      </c>
       <c r="H62">
         <v>3</v>
       </c>
@@ -6976,6 +7159,9 @@
       <c r="F63" t="s">
         <v>896</v>
       </c>
+      <c r="G63" t="s">
+        <v>897</v>
+      </c>
       <c r="H63">
         <v>3</v>
       </c>
@@ -7029,6 +7215,9 @@
       <c r="F64" t="s">
         <v>896</v>
       </c>
+      <c r="G64" t="s">
+        <v>896</v>
+      </c>
       <c r="H64">
         <v>2</v>
       </c>
@@ -7082,6 +7271,9 @@
       <c r="F65" t="s">
         <v>897</v>
       </c>
+      <c r="G65" t="s">
+        <v>897</v>
+      </c>
       <c r="H65">
         <v>1</v>
       </c>
@@ -7183,6 +7375,9 @@
       <c r="F66" t="s">
         <v>896</v>
       </c>
+      <c r="G66" t="s">
+        <v>896</v>
+      </c>
       <c r="H66">
         <v>1</v>
       </c>
@@ -7236,6 +7431,9 @@
       <c r="F67" t="s">
         <v>897</v>
       </c>
+      <c r="G67" t="s">
+        <v>897</v>
+      </c>
       <c r="H67" t="s">
         <v>898</v>
       </c>
@@ -7289,6 +7487,9 @@
       <c r="F68" t="s">
         <v>897</v>
       </c>
+      <c r="G68" t="s">
+        <v>897</v>
+      </c>
       <c r="H68">
         <v>1</v>
       </c>
@@ -7387,6 +7588,9 @@
       <c r="F69" t="s">
         <v>897</v>
       </c>
+      <c r="G69" t="s">
+        <v>897</v>
+      </c>
       <c r="H69">
         <v>1</v>
       </c>
@@ -7485,6 +7689,9 @@
       <c r="F70" t="s">
         <v>897</v>
       </c>
+      <c r="G70" t="s">
+        <v>897</v>
+      </c>
       <c r="H70">
         <v>1</v>
       </c>
@@ -7583,6 +7790,9 @@
       <c r="F71" t="s">
         <v>897</v>
       </c>
+      <c r="G71" t="s">
+        <v>897</v>
+      </c>
       <c r="H71">
         <v>1</v>
       </c>
@@ -7681,6 +7891,9 @@
       <c r="F72" t="s">
         <v>897</v>
       </c>
+      <c r="G72" t="s">
+        <v>897</v>
+      </c>
       <c r="H72">
         <v>1</v>
       </c>
@@ -7779,6 +7992,9 @@
       <c r="F73" t="s">
         <v>897</v>
       </c>
+      <c r="G73" t="s">
+        <v>897</v>
+      </c>
       <c r="H73">
         <v>1</v>
       </c>
@@ -7877,6 +8093,9 @@
       <c r="F74" t="s">
         <v>897</v>
       </c>
+      <c r="G74" t="s">
+        <v>897</v>
+      </c>
       <c r="H74">
         <v>1</v>
       </c>
@@ -7978,6 +8197,9 @@
       <c r="F75" t="s">
         <v>897</v>
       </c>
+      <c r="G75" t="s">
+        <v>897</v>
+      </c>
       <c r="H75">
         <v>1</v>
       </c>
@@ -8079,6 +8301,9 @@
       <c r="F76" t="s">
         <v>897</v>
       </c>
+      <c r="G76" t="s">
+        <v>897</v>
+      </c>
       <c r="H76">
         <v>1</v>
       </c>
@@ -8180,6 +8405,9 @@
       <c r="F77" t="s">
         <v>897</v>
       </c>
+      <c r="G77" t="s">
+        <v>897</v>
+      </c>
       <c r="H77">
         <v>2</v>
       </c>
@@ -8233,6 +8461,9 @@
       <c r="F78" t="s">
         <v>897</v>
       </c>
+      <c r="G78" t="s">
+        <v>897</v>
+      </c>
       <c r="H78">
         <v>2</v>
       </c>
@@ -8280,6 +8511,9 @@
       <c r="F79" t="s">
         <v>896</v>
       </c>
+      <c r="G79" t="s">
+        <v>896</v>
+      </c>
       <c r="H79">
         <v>2</v>
       </c>
@@ -8333,6 +8567,9 @@
       <c r="F80" t="s">
         <v>897</v>
       </c>
+      <c r="G80" t="s">
+        <v>897</v>
+      </c>
       <c r="H80">
         <v>1</v>
       </c>
@@ -8434,6 +8671,9 @@
       <c r="F81" t="s">
         <v>897</v>
       </c>
+      <c r="G81" t="s">
+        <v>897</v>
+      </c>
       <c r="H81">
         <v>1</v>
       </c>
@@ -8535,6 +8775,9 @@
       <c r="F82" t="s">
         <v>897</v>
       </c>
+      <c r="G82" t="s">
+        <v>897</v>
+      </c>
       <c r="H82">
         <v>1</v>
       </c>
@@ -8636,6 +8879,9 @@
       <c r="F83" t="s">
         <v>897</v>
       </c>
+      <c r="G83" t="s">
+        <v>897</v>
+      </c>
       <c r="H83">
         <v>1</v>
       </c>
@@ -8737,6 +8983,9 @@
       <c r="F84" t="s">
         <v>897</v>
       </c>
+      <c r="G84" t="s">
+        <v>897</v>
+      </c>
       <c r="H84">
         <v>1</v>
       </c>
@@ -8838,6 +9087,9 @@
       <c r="F85" t="s">
         <v>897</v>
       </c>
+      <c r="G85" t="s">
+        <v>896</v>
+      </c>
       <c r="H85">
         <v>1</v>
       </c>
@@ -8939,6 +9191,9 @@
       <c r="F86" t="s">
         <v>897</v>
       </c>
+      <c r="G86" t="s">
+        <v>897</v>
+      </c>
       <c r="H86">
         <v>1</v>
       </c>
@@ -9040,6 +9295,9 @@
       <c r="F87" t="s">
         <v>897</v>
       </c>
+      <c r="G87" t="s">
+        <v>897</v>
+      </c>
       <c r="H87">
         <v>1</v>
       </c>
@@ -9138,6 +9396,9 @@
       <c r="F88" t="s">
         <v>897</v>
       </c>
+      <c r="G88" t="s">
+        <v>897</v>
+      </c>
       <c r="H88">
         <v>1</v>
       </c>
@@ -9236,6 +9497,9 @@
       <c r="F89" t="s">
         <v>897</v>
       </c>
+      <c r="G89" t="s">
+        <v>897</v>
+      </c>
       <c r="H89">
         <v>1</v>
       </c>
@@ -9334,6 +9598,9 @@
       <c r="F90" t="s">
         <v>897</v>
       </c>
+      <c r="G90" t="s">
+        <v>897</v>
+      </c>
       <c r="H90">
         <v>1</v>
       </c>
@@ -9432,6 +9699,9 @@
       <c r="F91" t="s">
         <v>897</v>
       </c>
+      <c r="G91" t="s">
+        <v>897</v>
+      </c>
       <c r="H91">
         <v>1</v>
       </c>
@@ -9533,6 +9803,9 @@
       <c r="F92" t="s">
         <v>897</v>
       </c>
+      <c r="G92" t="s">
+        <v>897</v>
+      </c>
       <c r="H92">
         <v>1</v>
       </c>
@@ -9634,6 +9907,9 @@
       <c r="F93" t="s">
         <v>897</v>
       </c>
+      <c r="G93" t="s">
+        <v>897</v>
+      </c>
       <c r="H93">
         <v>1</v>
       </c>
@@ -9687,6 +9963,9 @@
       <c r="F94" t="s">
         <v>897</v>
       </c>
+      <c r="G94" t="s">
+        <v>897</v>
+      </c>
       <c r="H94">
         <v>1</v>
       </c>
@@ -9740,6 +10019,9 @@
       <c r="F95" t="s">
         <v>897</v>
       </c>
+      <c r="G95" t="s">
+        <v>897</v>
+      </c>
       <c r="H95">
         <v>1</v>
       </c>
@@ -9793,6 +10075,9 @@
       <c r="F96" t="s">
         <v>897</v>
       </c>
+      <c r="G96" t="s">
+        <v>897</v>
+      </c>
       <c r="H96">
         <v>2</v>
       </c>
@@ -9846,6 +10131,9 @@
       <c r="F97" t="s">
         <v>897</v>
       </c>
+      <c r="G97" t="s">
+        <v>897</v>
+      </c>
       <c r="H97">
         <v>2</v>
       </c>
@@ -9899,6 +10187,9 @@
       <c r="F98" t="s">
         <v>897</v>
       </c>
+      <c r="G98" t="s">
+        <v>897</v>
+      </c>
       <c r="H98">
         <v>2</v>
       </c>
@@ -9952,6 +10243,9 @@
       <c r="F99" t="s">
         <v>896</v>
       </c>
+      <c r="G99" t="s">
+        <v>897</v>
+      </c>
       <c r="H99">
         <v>2</v>
       </c>
@@ -10005,6 +10299,9 @@
       <c r="F100" t="s">
         <v>897</v>
       </c>
+      <c r="G100" t="s">
+        <v>896</v>
+      </c>
       <c r="N100">
         <v>5</v>
       </c>
@@ -10040,6 +10337,9 @@
       <c r="F101" t="s">
         <v>897</v>
       </c>
+      <c r="G101" t="s">
+        <v>897</v>
+      </c>
       <c r="H101">
         <v>3</v>
       </c>
@@ -10093,6 +10393,9 @@
       <c r="F102" t="s">
         <v>897</v>
       </c>
+      <c r="G102" t="s">
+        <v>897</v>
+      </c>
       <c r="H102">
         <v>3</v>
       </c>
@@ -10146,6 +10449,9 @@
       <c r="F103" t="s">
         <v>897</v>
       </c>
+      <c r="G103" t="s">
+        <v>897</v>
+      </c>
       <c r="H103">
         <v>3</v>
       </c>
@@ -10199,6 +10505,9 @@
       <c r="F104" t="s">
         <v>897</v>
       </c>
+      <c r="G104" t="s">
+        <v>897</v>
+      </c>
       <c r="H104">
         <v>3</v>
       </c>
@@ -10252,6 +10561,9 @@
       <c r="F105" t="s">
         <v>896</v>
       </c>
+      <c r="G105" t="s">
+        <v>897</v>
+      </c>
       <c r="H105">
         <v>3</v>
       </c>
@@ -10305,6 +10617,9 @@
       <c r="F106" t="s">
         <v>897</v>
       </c>
+      <c r="G106" t="s">
+        <v>897</v>
+      </c>
       <c r="H106">
         <v>3</v>
       </c>
@@ -10358,6 +10673,9 @@
       <c r="F107" t="s">
         <v>897</v>
       </c>
+      <c r="G107" t="s">
+        <v>897</v>
+      </c>
       <c r="H107">
         <v>1</v>
       </c>
@@ -10420,6 +10738,9 @@
       <c r="F108" t="s">
         <v>897</v>
       </c>
+      <c r="G108" t="s">
+        <v>897</v>
+      </c>
       <c r="H108">
         <v>1</v>
       </c>
@@ -10482,6 +10803,9 @@
       <c r="F109" t="s">
         <v>897</v>
       </c>
+      <c r="G109" t="s">
+        <v>897</v>
+      </c>
       <c r="H109">
         <v>1</v>
       </c>
@@ -10544,6 +10868,9 @@
       <c r="F110" t="s">
         <v>897</v>
       </c>
+      <c r="G110" t="s">
+        <v>897</v>
+      </c>
       <c r="H110">
         <v>1</v>
       </c>
@@ -10606,6 +10933,9 @@
       <c r="F111" t="s">
         <v>897</v>
       </c>
+      <c r="G111" t="s">
+        <v>897</v>
+      </c>
       <c r="H111">
         <v>1</v>
       </c>
@@ -10668,6 +10998,9 @@
       <c r="F112" t="s">
         <v>897</v>
       </c>
+      <c r="G112" t="s">
+        <v>897</v>
+      </c>
       <c r="H112">
         <v>1</v>
       </c>
@@ -10730,6 +11063,9 @@
       <c r="F113" t="s">
         <v>897</v>
       </c>
+      <c r="G113" t="s">
+        <v>897</v>
+      </c>
       <c r="H113">
         <v>1</v>
       </c>
@@ -10792,6 +11128,9 @@
       <c r="F114" t="s">
         <v>897</v>
       </c>
+      <c r="G114" t="s">
+        <v>897</v>
+      </c>
       <c r="H114">
         <v>2</v>
       </c>
@@ -10863,6 +11202,9 @@
       <c r="F115" t="s">
         <v>897</v>
       </c>
+      <c r="G115" t="s">
+        <v>897</v>
+      </c>
       <c r="H115">
         <v>2</v>
       </c>
@@ -10916,6 +11258,9 @@
       <c r="F116" t="s">
         <v>897</v>
       </c>
+      <c r="G116" t="s">
+        <v>897</v>
+      </c>
       <c r="H116">
         <v>2</v>
       </c>
@@ -10969,6 +11314,9 @@
       <c r="F117" t="s">
         <v>897</v>
       </c>
+      <c r="G117" t="s">
+        <v>897</v>
+      </c>
       <c r="H117">
         <v>2</v>
       </c>
@@ -11022,6 +11370,9 @@
       <c r="F118" t="s">
         <v>897</v>
       </c>
+      <c r="G118" t="s">
+        <v>897</v>
+      </c>
       <c r="H118">
         <v>2</v>
       </c>
@@ -11075,6 +11426,9 @@
       <c r="F119" t="s">
         <v>897</v>
       </c>
+      <c r="G119" t="s">
+        <v>897</v>
+      </c>
       <c r="H119">
         <v>2</v>
       </c>
@@ -11128,6 +11482,9 @@
       <c r="F120" t="s">
         <v>897</v>
       </c>
+      <c r="G120" t="s">
+        <v>897</v>
+      </c>
       <c r="H120">
         <v>2</v>
       </c>
@@ -11181,6 +11538,9 @@
       <c r="F121" t="s">
         <v>897</v>
       </c>
+      <c r="G121" t="s">
+        <v>897</v>
+      </c>
       <c r="H121">
         <v>2</v>
       </c>
@@ -11234,6 +11594,9 @@
       <c r="F122" t="s">
         <v>897</v>
       </c>
+      <c r="G122" t="s">
+        <v>897</v>
+      </c>
       <c r="H122">
         <v>2</v>
       </c>
@@ -11287,6 +11650,9 @@
       <c r="F123" t="s">
         <v>897</v>
       </c>
+      <c r="G123" t="s">
+        <v>897</v>
+      </c>
       <c r="H123">
         <v>2</v>
       </c>
@@ -11340,6 +11706,9 @@
       <c r="F124" t="s">
         <v>897</v>
       </c>
+      <c r="G124" t="s">
+        <v>897</v>
+      </c>
       <c r="H124">
         <v>2</v>
       </c>
@@ -11393,6 +11762,9 @@
       <c r="F125" t="s">
         <v>897</v>
       </c>
+      <c r="G125" t="s">
+        <v>897</v>
+      </c>
       <c r="H125">
         <v>2</v>
       </c>
@@ -11446,6 +11818,9 @@
       <c r="F126" t="s">
         <v>897</v>
       </c>
+      <c r="G126" t="s">
+        <v>896</v>
+      </c>
       <c r="H126">
         <v>2</v>
       </c>
@@ -11499,6 +11874,9 @@
       <c r="F127" t="s">
         <v>897</v>
       </c>
+      <c r="G127" t="s">
+        <v>896</v>
+      </c>
       <c r="H127">
         <v>2</v>
       </c>
@@ -11552,6 +11930,9 @@
       <c r="F128" t="s">
         <v>897</v>
       </c>
+      <c r="G128" t="s">
+        <v>896</v>
+      </c>
       <c r="H128">
         <v>2</v>
       </c>
@@ -11605,6 +11986,9 @@
       <c r="F129" t="s">
         <v>897</v>
       </c>
+      <c r="G129" t="s">
+        <v>896</v>
+      </c>
       <c r="H129">
         <v>2</v>
       </c>
@@ -11658,6 +12042,9 @@
       <c r="F130" t="s">
         <v>897</v>
       </c>
+      <c r="G130" t="s">
+        <v>896</v>
+      </c>
       <c r="H130">
         <v>2</v>
       </c>
@@ -11711,6 +12098,9 @@
       <c r="F131" t="s">
         <v>897</v>
       </c>
+      <c r="G131" t="s">
+        <v>896</v>
+      </c>
       <c r="H131">
         <v>2</v>
       </c>
@@ -11764,6 +12154,9 @@
       <c r="F132" t="s">
         <v>896</v>
       </c>
+      <c r="G132" t="s">
+        <v>896</v>
+      </c>
       <c r="H132">
         <v>2</v>
       </c>
@@ -11817,6 +12210,9 @@
       <c r="F133" t="s">
         <v>897</v>
       </c>
+      <c r="G133" t="s">
+        <v>896</v>
+      </c>
       <c r="H133">
         <v>1</v>
       </c>
@@ -11870,6 +12266,9 @@
       <c r="F134" t="s">
         <v>897</v>
       </c>
+      <c r="G134" t="s">
+        <v>896</v>
+      </c>
       <c r="H134">
         <v>1</v>
       </c>
@@ -11941,6 +12340,9 @@
       <c r="F135" t="s">
         <v>896</v>
       </c>
+      <c r="G135" t="s">
+        <v>897</v>
+      </c>
       <c r="H135">
         <v>3</v>
       </c>
@@ -11994,6 +12396,9 @@
       <c r="F136" t="s">
         <v>897</v>
       </c>
+      <c r="G136" t="s">
+        <v>897</v>
+      </c>
       <c r="H136">
         <v>1</v>
       </c>
@@ -12047,6 +12452,9 @@
       <c r="F137" t="s">
         <v>897</v>
       </c>
+      <c r="G137" t="s">
+        <v>897</v>
+      </c>
       <c r="H137">
         <v>3</v>
       </c>
@@ -12100,6 +12508,9 @@
       <c r="F138" t="s">
         <v>897</v>
       </c>
+      <c r="G138" t="s">
+        <v>897</v>
+      </c>
       <c r="H138">
         <v>3</v>
       </c>
@@ -12153,6 +12564,9 @@
       <c r="F139" t="s">
         <v>897</v>
       </c>
+      <c r="G139" t="s">
+        <v>897</v>
+      </c>
       <c r="H139">
         <v>3</v>
       </c>
@@ -12206,6 +12620,9 @@
       <c r="F140" t="s">
         <v>897</v>
       </c>
+      <c r="G140" t="s">
+        <v>897</v>
+      </c>
       <c r="H140">
         <v>3</v>
       </c>
@@ -12259,6 +12676,9 @@
       <c r="F141" t="s">
         <v>896</v>
       </c>
+      <c r="G141" t="s">
+        <v>896</v>
+      </c>
       <c r="H141">
         <v>1</v>
       </c>
@@ -12312,6 +12732,9 @@
       <c r="F142" t="s">
         <v>897</v>
       </c>
+      <c r="G142" t="s">
+        <v>896</v>
+      </c>
       <c r="H142">
         <v>2</v>
       </c>
@@ -12365,6 +12788,9 @@
       <c r="F143" t="s">
         <v>897</v>
       </c>
+      <c r="G143" t="s">
+        <v>896</v>
+      </c>
       <c r="H143">
         <v>2</v>
       </c>
@@ -12418,6 +12844,9 @@
       <c r="F144" t="s">
         <v>897</v>
       </c>
+      <c r="G144" t="s">
+        <v>896</v>
+      </c>
       <c r="H144">
         <v>2</v>
       </c>
@@ -12471,6 +12900,9 @@
       <c r="F145" t="s">
         <v>896</v>
       </c>
+      <c r="G145" t="s">
+        <v>897</v>
+      </c>
       <c r="H145" t="s">
         <v>898</v>
       </c>
@@ -12524,6 +12956,9 @@
       <c r="F146" t="s">
         <v>897</v>
       </c>
+      <c r="G146" t="s">
+        <v>896</v>
+      </c>
       <c r="H146">
         <v>1</v>
       </c>
@@ -12577,6 +13012,9 @@
       <c r="F147" t="s">
         <v>896</v>
       </c>
+      <c r="G147" t="s">
+        <v>897</v>
+      </c>
       <c r="H147" t="s">
         <v>898</v>
       </c>
@@ -12630,6 +13068,9 @@
       <c r="F148" t="s">
         <v>897</v>
       </c>
+      <c r="G148" t="s">
+        <v>897</v>
+      </c>
       <c r="H148" t="s">
         <v>898</v>
       </c>
@@ -12731,6 +13172,9 @@
       <c r="F149" t="s">
         <v>897</v>
       </c>
+      <c r="G149" t="s">
+        <v>897</v>
+      </c>
       <c r="H149" t="s">
         <v>898</v>
       </c>
@@ -12832,6 +13276,9 @@
       <c r="F150" t="s">
         <v>897</v>
       </c>
+      <c r="G150" t="s">
+        <v>896</v>
+      </c>
       <c r="H150">
         <v>3</v>
       </c>
@@ -12885,6 +13332,9 @@
       <c r="F151" t="s">
         <v>897</v>
       </c>
+      <c r="G151" t="s">
+        <v>897</v>
+      </c>
       <c r="H151">
         <v>2</v>
       </c>
@@ -12938,6 +13388,9 @@
       <c r="F152" t="s">
         <v>897</v>
       </c>
+      <c r="G152" t="s">
+        <v>897</v>
+      </c>
       <c r="H152">
         <v>2</v>
       </c>
@@ -12991,6 +13444,9 @@
       <c r="F153" t="s">
         <v>897</v>
       </c>
+      <c r="G153" t="s">
+        <v>897</v>
+      </c>
       <c r="H153">
         <v>2</v>
       </c>
@@ -13044,6 +13500,9 @@
       <c r="F154" t="s">
         <v>897</v>
       </c>
+      <c r="G154" t="s">
+        <v>897</v>
+      </c>
       <c r="H154">
         <v>2</v>
       </c>
@@ -13097,6 +13556,9 @@
       <c r="F155" t="s">
         <v>896</v>
       </c>
+      <c r="G155" t="s">
+        <v>897</v>
+      </c>
       <c r="H155">
         <v>2</v>
       </c>
@@ -13150,6 +13612,9 @@
       <c r="F156" t="s">
         <v>897</v>
       </c>
+      <c r="G156" t="s">
+        <v>897</v>
+      </c>
       <c r="H156">
         <v>2</v>
       </c>
@@ -13203,6 +13668,9 @@
       <c r="F157" t="s">
         <v>897</v>
       </c>
+      <c r="G157" t="s">
+        <v>897</v>
+      </c>
       <c r="H157">
         <v>2</v>
       </c>
@@ -13256,6 +13724,9 @@
       <c r="F158" t="s">
         <v>897</v>
       </c>
+      <c r="G158" t="s">
+        <v>897</v>
+      </c>
       <c r="H158">
         <v>2</v>
       </c>
@@ -13309,6 +13780,9 @@
       <c r="F159" t="s">
         <v>897</v>
       </c>
+      <c r="G159" t="s">
+        <v>897</v>
+      </c>
       <c r="H159">
         <v>2</v>
       </c>
@@ -13362,6 +13836,9 @@
       <c r="F160" t="s">
         <v>897</v>
       </c>
+      <c r="G160" t="s">
+        <v>897</v>
+      </c>
       <c r="H160">
         <v>2</v>
       </c>
@@ -13415,6 +13892,9 @@
       <c r="F161" t="s">
         <v>897</v>
       </c>
+      <c r="G161" t="s">
+        <v>897</v>
+      </c>
       <c r="H161">
         <v>2</v>
       </c>
@@ -13468,6 +13948,9 @@
       <c r="F162" t="s">
         <v>897</v>
       </c>
+      <c r="G162" t="s">
+        <v>897</v>
+      </c>
       <c r="H162">
         <v>2</v>
       </c>
@@ -13521,6 +14004,9 @@
       <c r="F163" t="s">
         <v>897</v>
       </c>
+      <c r="G163" t="s">
+        <v>897</v>
+      </c>
       <c r="H163">
         <v>2</v>
       </c>
@@ -13574,6 +14060,9 @@
       <c r="F164" t="s">
         <v>897</v>
       </c>
+      <c r="G164" t="s">
+        <v>897</v>
+      </c>
       <c r="H164">
         <v>1</v>
       </c>
@@ -13675,6 +14164,9 @@
       <c r="F165" t="s">
         <v>897</v>
       </c>
+      <c r="G165" t="s">
+        <v>897</v>
+      </c>
       <c r="H165">
         <v>1</v>
       </c>
@@ -13776,6 +14268,9 @@
       <c r="F166" t="s">
         <v>897</v>
       </c>
+      <c r="G166" t="s">
+        <v>897</v>
+      </c>
       <c r="H166">
         <v>1</v>
       </c>
@@ -13877,6 +14372,9 @@
       <c r="F167" t="s">
         <v>897</v>
       </c>
+      <c r="G167" t="s">
+        <v>897</v>
+      </c>
       <c r="H167">
         <v>1</v>
       </c>
@@ -13981,6 +14479,9 @@
       <c r="F168" t="s">
         <v>897</v>
       </c>
+      <c r="G168" t="s">
+        <v>897</v>
+      </c>
       <c r="H168">
         <v>1</v>
       </c>
@@ -14082,6 +14583,9 @@
       <c r="F169" t="s">
         <v>897</v>
       </c>
+      <c r="G169" t="s">
+        <v>897</v>
+      </c>
       <c r="H169">
         <v>1</v>
       </c>
@@ -14183,6 +14687,9 @@
       <c r="F170" t="s">
         <v>897</v>
       </c>
+      <c r="G170" t="s">
+        <v>897</v>
+      </c>
       <c r="H170">
         <v>1</v>
       </c>
@@ -14284,6 +14791,9 @@
       <c r="F171" t="s">
         <v>897</v>
       </c>
+      <c r="G171" t="s">
+        <v>897</v>
+      </c>
       <c r="H171">
         <v>1</v>
       </c>
@@ -14385,6 +14895,9 @@
       <c r="F172" t="s">
         <v>897</v>
       </c>
+      <c r="G172" t="s">
+        <v>897</v>
+      </c>
       <c r="H172">
         <v>1</v>
       </c>
@@ -14486,6 +14999,9 @@
       <c r="F173" t="s">
         <v>897</v>
       </c>
+      <c r="G173" t="s">
+        <v>897</v>
+      </c>
       <c r="H173">
         <v>1</v>
       </c>
@@ -14587,6 +15103,9 @@
       <c r="F174" t="s">
         <v>897</v>
       </c>
+      <c r="G174" t="s">
+        <v>897</v>
+      </c>
       <c r="H174">
         <v>1</v>
       </c>
@@ -14640,6 +15159,9 @@
       <c r="F175" t="s">
         <v>897</v>
       </c>
+      <c r="G175" t="s">
+        <v>897</v>
+      </c>
       <c r="H175">
         <v>2</v>
       </c>
@@ -14693,6 +15215,9 @@
       <c r="F176" t="s">
         <v>897</v>
       </c>
+      <c r="G176" t="s">
+        <v>897</v>
+      </c>
       <c r="H176">
         <v>2</v>
       </c>
@@ -14794,6 +15319,9 @@
       <c r="F177" t="s">
         <v>897</v>
       </c>
+      <c r="G177" t="s">
+        <v>897</v>
+      </c>
       <c r="H177">
         <v>2</v>
       </c>
@@ -14895,6 +15423,9 @@
       <c r="F178" t="s">
         <v>897</v>
       </c>
+      <c r="G178" t="s">
+        <v>897</v>
+      </c>
       <c r="H178">
         <v>2</v>
       </c>
@@ -14996,6 +15527,9 @@
       <c r="F179" t="s">
         <v>897</v>
       </c>
+      <c r="G179" t="s">
+        <v>897</v>
+      </c>
       <c r="H179">
         <v>2</v>
       </c>
@@ -15097,6 +15631,9 @@
       <c r="F180" t="s">
         <v>897</v>
       </c>
+      <c r="G180" t="s">
+        <v>897</v>
+      </c>
       <c r="H180">
         <v>2</v>
       </c>
@@ -15198,6 +15735,9 @@
       <c r="F181" t="s">
         <v>897</v>
       </c>
+      <c r="G181" t="s">
+        <v>897</v>
+      </c>
       <c r="H181">
         <v>2</v>
       </c>
@@ -15251,6 +15791,9 @@
       <c r="F182" t="s">
         <v>897</v>
       </c>
+      <c r="G182" t="s">
+        <v>897</v>
+      </c>
       <c r="H182">
         <v>2</v>
       </c>
@@ -15304,6 +15847,9 @@
       <c r="F183" t="s">
         <v>897</v>
       </c>
+      <c r="G183" t="s">
+        <v>897</v>
+      </c>
       <c r="H183">
         <v>1</v>
       </c>
@@ -15357,6 +15903,9 @@
       <c r="F184" t="s">
         <v>897</v>
       </c>
+      <c r="G184" t="s">
+        <v>897</v>
+      </c>
       <c r="H184">
         <v>1</v>
       </c>
@@ -15410,6 +15959,9 @@
       <c r="F185" t="s">
         <v>897</v>
       </c>
+      <c r="G185" t="s">
+        <v>897</v>
+      </c>
       <c r="H185">
         <v>1</v>
       </c>
@@ -15463,6 +16015,9 @@
       <c r="F186" t="s">
         <v>897</v>
       </c>
+      <c r="G186" t="s">
+        <v>897</v>
+      </c>
       <c r="H186">
         <v>1</v>
       </c>
@@ -15516,6 +16071,9 @@
       <c r="F187" t="s">
         <v>897</v>
       </c>
+      <c r="G187" t="s">
+        <v>897</v>
+      </c>
       <c r="H187">
         <v>1</v>
       </c>
@@ -15617,6 +16175,9 @@
       <c r="F188" t="s">
         <v>897</v>
       </c>
+      <c r="G188" t="s">
+        <v>897</v>
+      </c>
       <c r="H188">
         <v>1</v>
       </c>
@@ -15682,6 +16243,9 @@
       <c r="F189" t="s">
         <v>897</v>
       </c>
+      <c r="G189" t="s">
+        <v>897</v>
+      </c>
       <c r="H189">
         <v>1</v>
       </c>
@@ -15783,6 +16347,9 @@
       <c r="F190" t="s">
         <v>897</v>
       </c>
+      <c r="G190" t="s">
+        <v>897</v>
+      </c>
       <c r="H190">
         <v>1</v>
       </c>
@@ -15884,6 +16451,9 @@
       <c r="F191" t="s">
         <v>897</v>
       </c>
+      <c r="G191" t="s">
+        <v>897</v>
+      </c>
       <c r="H191">
         <v>1</v>
       </c>
@@ -15985,6 +16555,9 @@
       <c r="F192" t="s">
         <v>897</v>
       </c>
+      <c r="G192" t="s">
+        <v>897</v>
+      </c>
       <c r="H192">
         <v>1</v>
       </c>
@@ -16086,6 +16659,9 @@
       <c r="F193" t="s">
         <v>897</v>
       </c>
+      <c r="G193" t="s">
+        <v>897</v>
+      </c>
       <c r="H193">
         <v>1</v>
       </c>
@@ -16187,6 +16763,9 @@
       <c r="F194" t="s">
         <v>897</v>
       </c>
+      <c r="G194" t="s">
+        <v>897</v>
+      </c>
       <c r="H194">
         <v>1</v>
       </c>
@@ -16288,6 +16867,9 @@
       <c r="F195" t="s">
         <v>897</v>
       </c>
+      <c r="G195" t="s">
+        <v>897</v>
+      </c>
       <c r="H195">
         <v>1</v>
       </c>
@@ -16389,6 +16971,9 @@
       <c r="F196" t="s">
         <v>897</v>
       </c>
+      <c r="G196" t="s">
+        <v>897</v>
+      </c>
       <c r="H196">
         <v>2</v>
       </c>
@@ -16442,6 +17027,9 @@
       <c r="F197" t="s">
         <v>897</v>
       </c>
+      <c r="G197" t="s">
+        <v>897</v>
+      </c>
       <c r="H197">
         <v>2</v>
       </c>
@@ -16495,6 +17083,9 @@
       <c r="F198" t="s">
         <v>897</v>
       </c>
+      <c r="G198" t="s">
+        <v>897</v>
+      </c>
       <c r="H198" t="s">
         <v>898</v>
       </c>
@@ -16548,6 +17139,9 @@
       <c r="F199" t="s">
         <v>897</v>
       </c>
+      <c r="G199" t="s">
+        <v>896</v>
+      </c>
       <c r="H199" t="s">
         <v>898</v>
       </c>
@@ -16601,6 +17195,9 @@
       <c r="F200" t="s">
         <v>896</v>
       </c>
+      <c r="G200" t="s">
+        <v>896</v>
+      </c>
       <c r="H200">
         <v>2</v>
       </c>
@@ -16654,6 +17251,9 @@
       <c r="F201" t="s">
         <v>896</v>
       </c>
+      <c r="G201" t="s">
+        <v>896</v>
+      </c>
       <c r="H201">
         <v>1</v>
       </c>
@@ -16707,6 +17307,9 @@
       <c r="F202" t="s">
         <v>896</v>
       </c>
+      <c r="G202" t="s">
+        <v>897</v>
+      </c>
       <c r="H202" t="s">
         <v>898</v>
       </c>
@@ -16760,6 +17363,9 @@
       <c r="F203" t="s">
         <v>897</v>
       </c>
+      <c r="G203" t="s">
+        <v>896</v>
+      </c>
       <c r="H203">
         <v>1</v>
       </c>
@@ -16813,6 +17419,9 @@
       <c r="F204" t="s">
         <v>897</v>
       </c>
+      <c r="G204" t="s">
+        <v>896</v>
+      </c>
       <c r="H204">
         <v>1</v>
       </c>
@@ -16866,6 +17475,9 @@
       <c r="F205" t="s">
         <v>897</v>
       </c>
+      <c r="G205" t="s">
+        <v>897</v>
+      </c>
       <c r="H205">
         <v>3</v>
       </c>
@@ -16919,6 +17531,9 @@
       <c r="F206" t="s">
         <v>897</v>
       </c>
+      <c r="G206" t="s">
+        <v>897</v>
+      </c>
       <c r="H206">
         <v>3</v>
       </c>
@@ -16972,6 +17587,9 @@
       <c r="F207" t="s">
         <v>897</v>
       </c>
+      <c r="G207" t="s">
+        <v>897</v>
+      </c>
       <c r="H207">
         <v>3</v>
       </c>
@@ -17025,6 +17643,9 @@
       <c r="F208" t="s">
         <v>897</v>
       </c>
+      <c r="G208" t="s">
+        <v>897</v>
+      </c>
       <c r="H208">
         <v>3</v>
       </c>
@@ -17078,6 +17699,9 @@
       <c r="F209" t="s">
         <v>896</v>
       </c>
+      <c r="G209" t="s">
+        <v>896</v>
+      </c>
       <c r="H209">
         <v>2</v>
       </c>
@@ -17131,6 +17755,9 @@
       <c r="F210" t="s">
         <v>896</v>
       </c>
+      <c r="G210" t="s">
+        <v>896</v>
+      </c>
       <c r="H210">
         <v>2</v>
       </c>
@@ -17184,6 +17811,9 @@
       <c r="F211" t="s">
         <v>896</v>
       </c>
+      <c r="G211" t="s">
+        <v>896</v>
+      </c>
       <c r="H211">
         <v>2</v>
       </c>
@@ -17237,6 +17867,9 @@
       <c r="F212" t="s">
         <v>896</v>
       </c>
+      <c r="G212" t="s">
+        <v>897</v>
+      </c>
       <c r="H212" t="s">
         <v>898</v>
       </c>
@@ -17290,6 +17923,9 @@
       <c r="F213" t="s">
         <v>896</v>
       </c>
+      <c r="G213" t="s">
+        <v>897</v>
+      </c>
       <c r="H213" t="s">
         <v>898</v>
       </c>
@@ -17343,6 +17979,9 @@
       <c r="F214" t="s">
         <v>896</v>
       </c>
+      <c r="G214" t="s">
+        <v>897</v>
+      </c>
       <c r="H214" t="s">
         <v>898</v>
       </c>
@@ -17396,6 +18035,9 @@
       <c r="F215" t="s">
         <v>896</v>
       </c>
+      <c r="G215" t="s">
+        <v>897</v>
+      </c>
       <c r="H215" t="s">
         <v>898</v>
       </c>
@@ -17449,6 +18091,9 @@
       <c r="F216" t="s">
         <v>896</v>
       </c>
+      <c r="G216" t="s">
+        <v>897</v>
+      </c>
       <c r="H216" t="s">
         <v>898</v>
       </c>
@@ -17502,6 +18147,9 @@
       <c r="F217" t="s">
         <v>896</v>
       </c>
+      <c r="G217" t="s">
+        <v>897</v>
+      </c>
       <c r="H217" t="s">
         <v>898</v>
       </c>
@@ -17555,6 +18203,9 @@
       <c r="F218" t="s">
         <v>897</v>
       </c>
+      <c r="G218" t="s">
+        <v>896</v>
+      </c>
       <c r="H218">
         <v>2</v>
       </c>
@@ -17608,6 +18259,9 @@
       <c r="F219" t="s">
         <v>897</v>
       </c>
+      <c r="G219" t="s">
+        <v>896</v>
+      </c>
       <c r="H219">
         <v>1</v>
       </c>
@@ -17679,6 +18333,9 @@
       <c r="F220" t="s">
         <v>897</v>
       </c>
+      <c r="G220" t="s">
+        <v>896</v>
+      </c>
       <c r="H220">
         <v>1</v>
       </c>
@@ -17729,6 +18386,9 @@
       <c r="F221" t="s">
         <v>897</v>
       </c>
+      <c r="G221" t="s">
+        <v>897</v>
+      </c>
       <c r="H221">
         <v>3</v>
       </c>
@@ -17782,6 +18442,9 @@
       <c r="F222" t="s">
         <v>897</v>
       </c>
+      <c r="G222" t="s">
+        <v>897</v>
+      </c>
       <c r="H222">
         <v>3</v>
       </c>
@@ -17835,6 +18498,9 @@
       <c r="F223" t="s">
         <v>896</v>
       </c>
+      <c r="G223" t="s">
+        <v>897</v>
+      </c>
       <c r="H223">
         <v>3</v>
       </c>
@@ -17888,6 +18554,9 @@
       <c r="F224" t="s">
         <v>896</v>
       </c>
+      <c r="G224" t="s">
+        <v>897</v>
+      </c>
       <c r="H224">
         <v>3</v>
       </c>
@@ -17941,6 +18610,9 @@
       <c r="F225" t="s">
         <v>896</v>
       </c>
+      <c r="G225" t="s">
+        <v>897</v>
+      </c>
       <c r="H225">
         <v>3</v>
       </c>
@@ -17994,6 +18666,9 @@
       <c r="F226" t="s">
         <v>896</v>
       </c>
+      <c r="G226" t="s">
+        <v>897</v>
+      </c>
       <c r="H226">
         <v>3</v>
       </c>
@@ -18047,6 +18722,9 @@
       <c r="F227" t="s">
         <v>896</v>
       </c>
+      <c r="G227" t="s">
+        <v>897</v>
+      </c>
       <c r="H227">
         <v>3</v>
       </c>
@@ -18100,6 +18778,9 @@
       <c r="F228" t="s">
         <v>896</v>
       </c>
+      <c r="G228" t="s">
+        <v>897</v>
+      </c>
       <c r="H228">
         <v>3</v>
       </c>
@@ -18153,6 +18834,9 @@
       <c r="F229" t="s">
         <v>896</v>
       </c>
+      <c r="G229" t="s">
+        <v>897</v>
+      </c>
       <c r="H229">
         <v>3</v>
       </c>
@@ -18206,6 +18890,9 @@
       <c r="F230" t="s">
         <v>897</v>
       </c>
+      <c r="G230" t="s">
+        <v>897</v>
+      </c>
       <c r="H230">
         <v>3</v>
       </c>
@@ -18259,6 +18946,9 @@
       <c r="F231" t="s">
         <v>897</v>
       </c>
+      <c r="G231" t="s">
+        <v>896</v>
+      </c>
       <c r="H231">
         <v>3</v>
       </c>
@@ -18312,6 +19002,9 @@
       <c r="F232" t="s">
         <v>897</v>
       </c>
+      <c r="G232" t="s">
+        <v>897</v>
+      </c>
       <c r="H232">
         <v>3</v>
       </c>
@@ -18365,6 +19058,9 @@
       <c r="F233" t="s">
         <v>897</v>
       </c>
+      <c r="G233" t="s">
+        <v>897</v>
+      </c>
       <c r="H233">
         <v>3</v>
       </c>
@@ -18418,6 +19114,9 @@
       <c r="F234" t="s">
         <v>897</v>
       </c>
+      <c r="G234" t="s">
+        <v>897</v>
+      </c>
       <c r="H234">
         <v>3</v>
       </c>
@@ -18471,6 +19170,9 @@
       <c r="F235" t="s">
         <v>897</v>
       </c>
+      <c r="G235" t="s">
+        <v>897</v>
+      </c>
       <c r="H235">
         <v>3</v>
       </c>
@@ -18524,6 +19226,9 @@
       <c r="F236" t="s">
         <v>897</v>
       </c>
+      <c r="G236" t="s">
+        <v>897</v>
+      </c>
       <c r="H236">
         <v>3</v>
       </c>
@@ -18577,6 +19282,9 @@
       <c r="F237" t="s">
         <v>897</v>
       </c>
+      <c r="G237" t="s">
+        <v>897</v>
+      </c>
       <c r="H237">
         <v>3</v>
       </c>
@@ -18630,6 +19338,9 @@
       <c r="F238" t="s">
         <v>897</v>
       </c>
+      <c r="G238" t="s">
+        <v>897</v>
+      </c>
       <c r="H238">
         <v>3</v>
       </c>
@@ -18683,6 +19394,9 @@
       <c r="F239" t="s">
         <v>896</v>
       </c>
+      <c r="G239" t="s">
+        <v>897</v>
+      </c>
       <c r="H239">
         <v>3</v>
       </c>
@@ -18736,6 +19450,9 @@
       <c r="F240" t="s">
         <v>897</v>
       </c>
+      <c r="G240" t="s">
+        <v>896</v>
+      </c>
       <c r="H240">
         <v>1</v>
       </c>
@@ -18807,6 +19524,9 @@
       <c r="F241" t="s">
         <v>897</v>
       </c>
+      <c r="G241" t="s">
+        <v>897</v>
+      </c>
       <c r="H241">
         <v>1</v>
       </c>
@@ -18860,6 +19580,9 @@
       <c r="F242" t="s">
         <v>897</v>
       </c>
+      <c r="G242" t="s">
+        <v>896</v>
+      </c>
       <c r="H242">
         <v>2</v>
       </c>
@@ -18913,6 +19636,9 @@
       <c r="F243" t="s">
         <v>896</v>
       </c>
+      <c r="G243" t="s">
+        <v>897</v>
+      </c>
       <c r="H243">
         <v>3</v>
       </c>
@@ -18966,6 +19692,9 @@
       <c r="F244" t="s">
         <v>897</v>
       </c>
+      <c r="G244" t="s">
+        <v>897</v>
+      </c>
       <c r="H244">
         <v>2</v>
       </c>
@@ -19019,6 +19748,9 @@
       <c r="F245" t="s">
         <v>897</v>
       </c>
+      <c r="G245" t="s">
+        <v>896</v>
+      </c>
       <c r="H245">
         <v>2</v>
       </c>
@@ -19072,6 +19804,9 @@
       <c r="F246" t="s">
         <v>897</v>
       </c>
+      <c r="G246" t="s">
+        <v>896</v>
+      </c>
       <c r="H246">
         <v>3</v>
       </c>
@@ -19125,6 +19860,9 @@
       <c r="F247" t="s">
         <v>897</v>
       </c>
+      <c r="G247" t="s">
+        <v>897</v>
+      </c>
       <c r="H247">
         <v>2</v>
       </c>
@@ -19178,6 +19916,9 @@
       <c r="F248" t="s">
         <v>897</v>
       </c>
+      <c r="G248" t="s">
+        <v>897</v>
+      </c>
       <c r="H248">
         <v>2</v>
       </c>
@@ -19231,6 +19972,9 @@
       <c r="F249" t="s">
         <v>897</v>
       </c>
+      <c r="G249" t="s">
+        <v>897</v>
+      </c>
       <c r="H249">
         <v>2</v>
       </c>
@@ -19284,6 +20028,9 @@
       <c r="F250" t="s">
         <v>897</v>
       </c>
+      <c r="G250" t="s">
+        <v>897</v>
+      </c>
       <c r="H250">
         <v>2</v>
       </c>
@@ -19337,6 +20084,9 @@
       <c r="F251" t="s">
         <v>897</v>
       </c>
+      <c r="G251" t="s">
+        <v>897</v>
+      </c>
       <c r="H251">
         <v>2</v>
       </c>
@@ -19390,6 +20140,9 @@
       <c r="F252" t="s">
         <v>896</v>
       </c>
+      <c r="G252" t="s">
+        <v>897</v>
+      </c>
       <c r="H252">
         <v>2</v>
       </c>
@@ -19443,6 +20196,9 @@
       <c r="F253" t="s">
         <v>896</v>
       </c>
+      <c r="G253" t="s">
+        <v>897</v>
+      </c>
       <c r="H253">
         <v>2</v>
       </c>
@@ -19496,6 +20252,9 @@
       <c r="F254" t="s">
         <v>896</v>
       </c>
+      <c r="G254" t="s">
+        <v>897</v>
+      </c>
       <c r="H254">
         <v>2</v>
       </c>
@@ -19549,6 +20308,9 @@
       <c r="F255" t="s">
         <v>896</v>
       </c>
+      <c r="G255" t="s">
+        <v>897</v>
+      </c>
       <c r="H255" t="s">
         <v>898</v>
       </c>
@@ -19602,6 +20364,9 @@
       <c r="F256" t="s">
         <v>896</v>
       </c>
+      <c r="G256" t="s">
+        <v>897</v>
+      </c>
       <c r="H256" t="s">
         <v>898</v>
       </c>
@@ -19655,6 +20420,9 @@
       <c r="F257" t="s">
         <v>896</v>
       </c>
+      <c r="G257" t="s">
+        <v>897</v>
+      </c>
       <c r="H257" t="s">
         <v>898</v>
       </c>
@@ -19708,6 +20476,9 @@
       <c r="F258" t="s">
         <v>896</v>
       </c>
+      <c r="G258" t="s">
+        <v>897</v>
+      </c>
       <c r="H258" t="s">
         <v>898</v>
       </c>
@@ -19761,6 +20532,9 @@
       <c r="F259" t="s">
         <v>896</v>
       </c>
+      <c r="G259" t="s">
+        <v>897</v>
+      </c>
       <c r="H259" t="s">
         <v>898</v>
       </c>
@@ -19814,6 +20588,9 @@
       <c r="F260" t="s">
         <v>896</v>
       </c>
+      <c r="G260" t="s">
+        <v>897</v>
+      </c>
       <c r="H260" t="s">
         <v>898</v>
       </c>
@@ -19867,6 +20644,9 @@
       <c r="F261" t="s">
         <v>896</v>
       </c>
+      <c r="G261" t="s">
+        <v>897</v>
+      </c>
       <c r="H261" t="s">
         <v>898</v>
       </c>
@@ -19920,6 +20700,9 @@
       <c r="F262" t="s">
         <v>896</v>
       </c>
+      <c r="G262" t="s">
+        <v>897</v>
+      </c>
       <c r="H262" t="s">
         <v>898</v>
       </c>
@@ -19973,6 +20756,9 @@
       <c r="F263" t="s">
         <v>896</v>
       </c>
+      <c r="G263" t="s">
+        <v>897</v>
+      </c>
       <c r="H263" t="s">
         <v>898</v>
       </c>
@@ -20026,6 +20812,9 @@
       <c r="F264" t="s">
         <v>896</v>
       </c>
+      <c r="G264" t="s">
+        <v>897</v>
+      </c>
       <c r="H264" t="s">
         <v>898</v>
       </c>
@@ -20079,6 +20868,9 @@
       <c r="F265" t="s">
         <v>896</v>
       </c>
+      <c r="G265" t="s">
+        <v>897</v>
+      </c>
       <c r="H265" t="s">
         <v>898</v>
       </c>
@@ -20132,6 +20924,9 @@
       <c r="F266" t="s">
         <v>896</v>
       </c>
+      <c r="G266" t="s">
+        <v>897</v>
+      </c>
       <c r="H266" t="s">
         <v>898</v>
       </c>
@@ -20185,6 +20980,9 @@
       <c r="F267" t="s">
         <v>896</v>
       </c>
+      <c r="G267" t="s">
+        <v>897</v>
+      </c>
       <c r="H267" t="s">
         <v>898</v>
       </c>
@@ -20238,6 +21036,9 @@
       <c r="F268" t="s">
         <v>896</v>
       </c>
+      <c r="G268" t="s">
+        <v>897</v>
+      </c>
       <c r="H268" t="s">
         <v>898</v>
       </c>
@@ -20291,6 +21092,9 @@
       <c r="F269" t="s">
         <v>896</v>
       </c>
+      <c r="G269" t="s">
+        <v>897</v>
+      </c>
       <c r="H269" t="s">
         <v>898</v>
       </c>
@@ -20344,6 +21148,9 @@
       <c r="F270" t="s">
         <v>896</v>
       </c>
+      <c r="G270" t="s">
+        <v>896</v>
+      </c>
       <c r="H270" t="s">
         <v>898</v>
       </c>
@@ -20397,6 +21204,9 @@
       <c r="F271" t="s">
         <v>897</v>
       </c>
+      <c r="G271" t="s">
+        <v>896</v>
+      </c>
       <c r="H271">
         <v>3</v>
       </c>
@@ -20450,6 +21260,9 @@
       <c r="F272" t="s">
         <v>897</v>
       </c>
+      <c r="G272" t="s">
+        <v>897</v>
+      </c>
       <c r="H272">
         <v>3</v>
       </c>
@@ -20503,6 +21316,9 @@
       <c r="F273" t="s">
         <v>897</v>
       </c>
+      <c r="G273" t="s">
+        <v>897</v>
+      </c>
       <c r="H273">
         <v>3</v>
       </c>
@@ -20556,6 +21372,9 @@
       <c r="F274" t="s">
         <v>896</v>
       </c>
+      <c r="G274" t="s">
+        <v>897</v>
+      </c>
       <c r="H274">
         <v>3</v>
       </c>
@@ -20609,6 +21428,9 @@
       <c r="F275" t="s">
         <v>896</v>
       </c>
+      <c r="G275" t="s">
+        <v>897</v>
+      </c>
       <c r="H275" t="s">
         <v>898</v>
       </c>
@@ -20662,6 +21484,9 @@
       <c r="F276" t="s">
         <v>897</v>
       </c>
+      <c r="G276" t="s">
+        <v>896</v>
+      </c>
       <c r="N276">
         <v>5</v>
       </c>
@@ -20697,6 +21522,9 @@
       <c r="F277" t="s">
         <v>897</v>
       </c>
+      <c r="G277" t="s">
+        <v>896</v>
+      </c>
       <c r="N277">
         <v>5</v>
       </c>
@@ -20732,6 +21560,9 @@
       <c r="F278" t="s">
         <v>897</v>
       </c>
+      <c r="G278" t="s">
+        <v>896</v>
+      </c>
       <c r="N278">
         <v>5</v>
       </c>
@@ -20767,6 +21598,9 @@
       <c r="F279" t="s">
         <v>897</v>
       </c>
+      <c r="G279" t="s">
+        <v>896</v>
+      </c>
       <c r="N279">
         <v>5</v>
       </c>
@@ -20802,6 +21636,9 @@
       <c r="F280" t="s">
         <v>897</v>
       </c>
+      <c r="G280" t="s">
+        <v>896</v>
+      </c>
       <c r="N280">
         <v>5</v>
       </c>
@@ -20837,6 +21674,9 @@
       <c r="F281" t="s">
         <v>897</v>
       </c>
+      <c r="G281" t="s">
+        <v>896</v>
+      </c>
       <c r="N281">
         <v>5</v>
       </c>
@@ -20872,6 +21712,9 @@
       <c r="F282" t="s">
         <v>897</v>
       </c>
+      <c r="G282" t="s">
+        <v>896</v>
+      </c>
       <c r="N282">
         <v>5</v>
       </c>
@@ -20907,6 +21750,9 @@
       <c r="F283" t="s">
         <v>897</v>
       </c>
+      <c r="G283" t="s">
+        <v>896</v>
+      </c>
       <c r="N283">
         <v>5</v>
       </c>
@@ -20942,6 +21788,9 @@
       <c r="F284" t="s">
         <v>897</v>
       </c>
+      <c r="G284" t="s">
+        <v>896</v>
+      </c>
       <c r="H284">
         <v>1</v>
       </c>
@@ -20995,6 +21844,9 @@
       <c r="F285" t="s">
         <v>897</v>
       </c>
+      <c r="G285" t="s">
+        <v>896</v>
+      </c>
       <c r="H285">
         <v>3</v>
       </c>
@@ -21048,6 +21900,9 @@
       <c r="F286" t="s">
         <v>896</v>
       </c>
+      <c r="G286" t="s">
+        <v>897</v>
+      </c>
       <c r="H286">
         <v>1</v>
       </c>
@@ -21101,6 +21956,9 @@
       <c r="F287" t="s">
         <v>897</v>
       </c>
+      <c r="G287" t="s">
+        <v>897</v>
+      </c>
       <c r="H287">
         <v>2</v>
       </c>
@@ -21202,6 +22060,9 @@
       <c r="F288" t="s">
         <v>897</v>
       </c>
+      <c r="G288" t="s">
+        <v>897</v>
+      </c>
       <c r="H288">
         <v>2</v>
       </c>
@@ -21303,6 +22164,9 @@
       <c r="F289" t="s">
         <v>897</v>
       </c>
+      <c r="G289" t="s">
+        <v>897</v>
+      </c>
       <c r="H289">
         <v>2</v>
       </c>
@@ -21356,6 +22220,9 @@
       <c r="F290" t="s">
         <v>897</v>
       </c>
+      <c r="G290" t="s">
+        <v>897</v>
+      </c>
       <c r="H290">
         <v>2</v>
       </c>
@@ -21409,6 +22276,9 @@
       <c r="F291" t="s">
         <v>897</v>
       </c>
+      <c r="G291" t="s">
+        <v>897</v>
+      </c>
       <c r="H291">
         <v>2</v>
       </c>
@@ -21462,6 +22332,9 @@
       <c r="F292" t="s">
         <v>897</v>
       </c>
+      <c r="G292" t="s">
+        <v>897</v>
+      </c>
       <c r="H292">
         <v>2</v>
       </c>
@@ -21515,6 +22388,9 @@
       <c r="F293" t="s">
         <v>897</v>
       </c>
+      <c r="G293" t="s">
+        <v>897</v>
+      </c>
       <c r="H293" t="s">
         <v>898</v>
       </c>
@@ -21565,6 +22441,9 @@
       <c r="F294" t="s">
         <v>896</v>
       </c>
+      <c r="G294" t="s">
+        <v>896</v>
+      </c>
       <c r="H294">
         <v>2</v>
       </c>
@@ -21618,6 +22497,9 @@
       <c r="F295" t="s">
         <v>896</v>
       </c>
+      <c r="G295" t="s">
+        <v>897</v>
+      </c>
       <c r="H295" t="s">
         <v>898</v>
       </c>
@@ -21671,6 +22553,9 @@
       <c r="F296" t="s">
         <v>896</v>
       </c>
+      <c r="G296" t="s">
+        <v>897</v>
+      </c>
       <c r="H296" t="s">
         <v>898</v>
       </c>
@@ -21724,6 +22609,9 @@
       <c r="F297" t="s">
         <v>896</v>
       </c>
+      <c r="G297" t="s">
+        <v>897</v>
+      </c>
       <c r="H297" t="s">
         <v>898</v>
       </c>
@@ -21777,6 +22665,9 @@
       <c r="F298" t="s">
         <v>896</v>
       </c>
+      <c r="G298" t="s">
+        <v>897</v>
+      </c>
       <c r="H298" t="s">
         <v>898</v>
       </c>
@@ -21830,6 +22721,9 @@
       <c r="F299" t="s">
         <v>897</v>
       </c>
+      <c r="G299" t="s">
+        <v>897</v>
+      </c>
       <c r="H299">
         <v>3</v>
       </c>
@@ -21883,6 +22777,9 @@
       <c r="F300" t="s">
         <v>897</v>
       </c>
+      <c r="G300" t="s">
+        <v>897</v>
+      </c>
       <c r="H300">
         <v>3</v>
       </c>
@@ -21936,6 +22833,9 @@
       <c r="F301" t="s">
         <v>897</v>
       </c>
+      <c r="G301" t="s">
+        <v>897</v>
+      </c>
       <c r="H301">
         <v>3</v>
       </c>
@@ -21989,6 +22889,9 @@
       <c r="F302" t="s">
         <v>897</v>
       </c>
+      <c r="G302" t="s">
+        <v>897</v>
+      </c>
       <c r="H302">
         <v>3</v>
       </c>
@@ -22042,6 +22945,9 @@
       <c r="F303" t="s">
         <v>897</v>
       </c>
+      <c r="G303" t="s">
+        <v>897</v>
+      </c>
       <c r="H303">
         <v>3</v>
       </c>
@@ -22095,6 +23001,9 @@
       <c r="F304" t="s">
         <v>897</v>
       </c>
+      <c r="G304" t="s">
+        <v>897</v>
+      </c>
       <c r="H304">
         <v>3</v>
       </c>
@@ -22148,6 +23057,9 @@
       <c r="F305" t="s">
         <v>897</v>
       </c>
+      <c r="G305" t="s">
+        <v>897</v>
+      </c>
       <c r="H305">
         <v>3</v>
       </c>
@@ -22201,6 +23113,9 @@
       <c r="F306" t="s">
         <v>896</v>
       </c>
+      <c r="G306" t="s">
+        <v>896</v>
+      </c>
       <c r="H306">
         <v>3</v>
       </c>
@@ -22254,6 +23169,9 @@
       <c r="F307" t="s">
         <v>896</v>
       </c>
+      <c r="G307" t="s">
+        <v>896</v>
+      </c>
       <c r="H307">
         <v>3</v>
       </c>
@@ -22307,6 +23225,9 @@
       <c r="F308" t="s">
         <v>896</v>
       </c>
+      <c r="G308" t="s">
+        <v>896</v>
+      </c>
       <c r="H308">
         <v>3</v>
       </c>
@@ -22360,6 +23281,9 @@
       <c r="F309" t="s">
         <v>896</v>
       </c>
+      <c r="G309" t="s">
+        <v>896</v>
+      </c>
       <c r="H309">
         <v>3</v>
       </c>
@@ -22413,6 +23337,9 @@
       <c r="F310" t="s">
         <v>897</v>
       </c>
+      <c r="G310" t="s">
+        <v>896</v>
+      </c>
       <c r="H310">
         <v>1</v>
       </c>
@@ -22466,6 +23393,9 @@
       <c r="F311" t="s">
         <v>896</v>
       </c>
+      <c r="G311" t="s">
+        <v>896</v>
+      </c>
       <c r="H311">
         <v>3</v>
       </c>
@@ -22564,6 +23494,9 @@
       <c r="F312" t="s">
         <v>897</v>
       </c>
+      <c r="G312" t="s">
+        <v>897</v>
+      </c>
       <c r="H312">
         <v>3</v>
       </c>
@@ -22665,6 +23598,9 @@
       <c r="F313" t="s">
         <v>897</v>
       </c>
+      <c r="G313" t="s">
+        <v>897</v>
+      </c>
       <c r="H313">
         <v>3</v>
       </c>
@@ -22766,6 +23702,9 @@
       <c r="F314" t="s">
         <v>897</v>
       </c>
+      <c r="G314" t="s">
+        <v>897</v>
+      </c>
       <c r="H314">
         <v>3</v>
       </c>
@@ -22867,6 +23806,9 @@
       <c r="F315" t="s">
         <v>897</v>
       </c>
+      <c r="G315" t="s">
+        <v>897</v>
+      </c>
       <c r="H315">
         <v>3</v>
       </c>
@@ -22968,6 +23910,9 @@
       <c r="F316" t="s">
         <v>897</v>
       </c>
+      <c r="G316" t="s">
+        <v>897</v>
+      </c>
       <c r="H316">
         <v>3</v>
       </c>
@@ -23069,6 +24014,9 @@
       <c r="F317" t="s">
         <v>897</v>
       </c>
+      <c r="G317" t="s">
+        <v>896</v>
+      </c>
       <c r="H317" t="s">
         <v>898</v>
       </c>
@@ -23122,6 +24070,9 @@
       <c r="F318" t="s">
         <v>897</v>
       </c>
+      <c r="G318" t="s">
+        <v>896</v>
+      </c>
       <c r="H318">
         <v>2</v>
       </c>
@@ -23175,6 +24126,9 @@
       <c r="F319" t="s">
         <v>896</v>
       </c>
+      <c r="G319" t="s">
+        <v>896</v>
+      </c>
       <c r="H319">
         <v>1</v>
       </c>
@@ -23228,6 +24182,9 @@
       <c r="F320" t="s">
         <v>897</v>
       </c>
+      <c r="G320" t="s">
+        <v>897</v>
+      </c>
       <c r="H320">
         <v>2</v>
       </c>
@@ -23281,6 +24238,9 @@
       <c r="F321" t="s">
         <v>897</v>
       </c>
+      <c r="G321" t="s">
+        <v>897</v>
+      </c>
       <c r="H321">
         <v>2</v>
       </c>
@@ -23334,6 +24294,9 @@
       <c r="F322" t="s">
         <v>897</v>
       </c>
+      <c r="G322" t="s">
+        <v>897</v>
+      </c>
       <c r="H322">
         <v>2</v>
       </c>
@@ -23387,6 +24350,9 @@
       <c r="F323" t="s">
         <v>897</v>
       </c>
+      <c r="G323" t="s">
+        <v>897</v>
+      </c>
       <c r="H323">
         <v>2</v>
       </c>
@@ -23440,6 +24406,9 @@
       <c r="F324" t="s">
         <v>897</v>
       </c>
+      <c r="G324" t="s">
+        <v>897</v>
+      </c>
       <c r="H324">
         <v>2</v>
       </c>
@@ -23493,6 +24462,9 @@
       <c r="F325" t="s">
         <v>896</v>
       </c>
+      <c r="G325" t="s">
+        <v>897</v>
+      </c>
       <c r="H325">
         <v>2</v>
       </c>
@@ -23546,6 +24518,9 @@
       <c r="F326" t="s">
         <v>896</v>
       </c>
+      <c r="G326" t="s">
+        <v>897</v>
+      </c>
       <c r="H326" t="s">
         <v>898</v>
       </c>
@@ -23599,6 +24574,9 @@
       <c r="F327" t="s">
         <v>896</v>
       </c>
+      <c r="G327" t="s">
+        <v>897</v>
+      </c>
       <c r="H327" t="s">
         <v>898</v>
       </c>
@@ -23652,6 +24630,9 @@
       <c r="F328" t="s">
         <v>896</v>
       </c>
+      <c r="G328" t="s">
+        <v>896</v>
+      </c>
       <c r="H328" t="s">
         <v>898</v>
       </c>
@@ -23705,6 +24686,9 @@
       <c r="F329" t="s">
         <v>896</v>
       </c>
+      <c r="G329" t="s">
+        <v>896</v>
+      </c>
       <c r="H329">
         <v>2</v>
       </c>
@@ -23758,6 +24742,9 @@
       <c r="F330" t="s">
         <v>897</v>
       </c>
+      <c r="G330" t="s">
+        <v>897</v>
+      </c>
       <c r="H330">
         <v>2</v>
       </c>
@@ -23811,6 +24798,9 @@
       <c r="F331" t="s">
         <v>897</v>
       </c>
+      <c r="G331" t="s">
+        <v>897</v>
+      </c>
       <c r="H331">
         <v>2</v>
       </c>
@@ -23864,6 +24854,9 @@
       <c r="F332" t="s">
         <v>897</v>
       </c>
+      <c r="G332" t="s">
+        <v>897</v>
+      </c>
       <c r="H332">
         <v>2</v>
       </c>
@@ -23917,6 +24910,9 @@
       <c r="F333" t="s">
         <v>897</v>
       </c>
+      <c r="G333" t="s">
+        <v>897</v>
+      </c>
       <c r="H333">
         <v>2</v>
       </c>
@@ -23970,6 +24966,9 @@
       <c r="F334" t="s">
         <v>897</v>
       </c>
+      <c r="G334" t="s">
+        <v>897</v>
+      </c>
       <c r="H334">
         <v>2</v>
       </c>
@@ -24023,6 +25022,9 @@
       <c r="F335" t="s">
         <v>897</v>
       </c>
+      <c r="G335" t="s">
+        <v>897</v>
+      </c>
       <c r="H335">
         <v>2</v>
       </c>
@@ -24076,6 +25078,9 @@
       <c r="F336" t="s">
         <v>896</v>
       </c>
+      <c r="G336" t="s">
+        <v>897</v>
+      </c>
       <c r="H336" t="s">
         <v>898</v>
       </c>
@@ -24129,6 +25134,9 @@
       <c r="F337" t="s">
         <v>896</v>
       </c>
+      <c r="G337" t="s">
+        <v>897</v>
+      </c>
       <c r="H337" t="s">
         <v>898</v>
       </c>
@@ -24182,6 +25190,9 @@
       <c r="F338" t="s">
         <v>896</v>
       </c>
+      <c r="G338" t="s">
+        <v>897</v>
+      </c>
       <c r="H338" t="s">
         <v>898</v>
       </c>
@@ -24235,6 +25246,9 @@
       <c r="F339" t="s">
         <v>897</v>
       </c>
+      <c r="G339" t="s">
+        <v>896</v>
+      </c>
       <c r="N339">
         <v>5</v>
       </c>
@@ -24270,6 +25284,9 @@
       <c r="F340" t="s">
         <v>897</v>
       </c>
+      <c r="G340" t="s">
+        <v>896</v>
+      </c>
       <c r="N340">
         <v>5</v>
       </c>
@@ -24305,6 +25322,9 @@
       <c r="F341" t="s">
         <v>897</v>
       </c>
+      <c r="G341" t="s">
+        <v>896</v>
+      </c>
       <c r="N341">
         <v>5</v>
       </c>
@@ -24340,6 +25360,9 @@
       <c r="F342" t="s">
         <v>897</v>
       </c>
+      <c r="G342" t="s">
+        <v>896</v>
+      </c>
       <c r="N342">
         <v>1</v>
       </c>
@@ -24375,6 +25398,9 @@
       <c r="F343" t="s">
         <v>897</v>
       </c>
+      <c r="G343" t="s">
+        <v>897</v>
+      </c>
       <c r="H343">
         <v>2</v>
       </c>
@@ -24476,6 +25502,9 @@
       <c r="F344" t="s">
         <v>897</v>
       </c>
+      <c r="G344" t="s">
+        <v>897</v>
+      </c>
       <c r="H344">
         <v>2</v>
       </c>
@@ -24577,6 +25606,9 @@
       <c r="F345" t="s">
         <v>897</v>
       </c>
+      <c r="G345" t="s">
+        <v>897</v>
+      </c>
       <c r="H345">
         <v>2</v>
       </c>
@@ -24678,6 +25710,9 @@
       <c r="F346" t="s">
         <v>897</v>
       </c>
+      <c r="G346" t="s">
+        <v>897</v>
+      </c>
       <c r="H346">
         <v>2</v>
       </c>
@@ -24779,6 +25814,9 @@
       <c r="F347" t="s">
         <v>897</v>
       </c>
+      <c r="G347" t="s">
+        <v>897</v>
+      </c>
       <c r="H347">
         <v>2</v>
       </c>
@@ -24832,6 +25870,9 @@
       <c r="F348" t="s">
         <v>897</v>
       </c>
+      <c r="G348" t="s">
+        <v>897</v>
+      </c>
       <c r="H348">
         <v>2</v>
       </c>
@@ -24885,6 +25926,9 @@
       <c r="F349" t="s">
         <v>897</v>
       </c>
+      <c r="G349" t="s">
+        <v>897</v>
+      </c>
       <c r="H349">
         <v>2</v>
       </c>
@@ -24938,6 +25982,9 @@
       <c r="F350" t="s">
         <v>897</v>
       </c>
+      <c r="G350" t="s">
+        <v>897</v>
+      </c>
       <c r="H350">
         <v>2</v>
       </c>
@@ -24991,6 +26038,9 @@
       <c r="F351" t="s">
         <v>897</v>
       </c>
+      <c r="G351" t="s">
+        <v>897</v>
+      </c>
       <c r="H351">
         <v>2</v>
       </c>
@@ -25044,6 +26094,9 @@
       <c r="F352" t="s">
         <v>897</v>
       </c>
+      <c r="G352" t="s">
+        <v>897</v>
+      </c>
       <c r="H352">
         <v>2</v>
       </c>
@@ -25097,6 +26150,9 @@
       <c r="F353" t="s">
         <v>897</v>
       </c>
+      <c r="G353" t="s">
+        <v>897</v>
+      </c>
       <c r="H353">
         <v>3</v>
       </c>
@@ -25150,6 +26206,9 @@
       <c r="F354" t="s">
         <v>897</v>
       </c>
+      <c r="G354" t="s">
+        <v>897</v>
+      </c>
       <c r="H354">
         <v>3</v>
       </c>
@@ -25203,6 +26262,9 @@
       <c r="F355" t="s">
         <v>897</v>
       </c>
+      <c r="G355" t="s">
+        <v>897</v>
+      </c>
       <c r="H355">
         <v>3</v>
       </c>
@@ -25256,6 +26318,9 @@
       <c r="F356" t="s">
         <v>897</v>
       </c>
+      <c r="G356" t="s">
+        <v>897</v>
+      </c>
       <c r="H356">
         <v>3</v>
       </c>
@@ -25309,6 +26374,9 @@
       <c r="F357" t="s">
         <v>896</v>
       </c>
+      <c r="G357" t="s">
+        <v>897</v>
+      </c>
       <c r="H357">
         <v>3</v>
       </c>
@@ -25362,6 +26430,9 @@
       <c r="F358" t="s">
         <v>897</v>
       </c>
+      <c r="G358" t="s">
+        <v>896</v>
+      </c>
       <c r="H358">
         <v>2</v>
       </c>
@@ -25415,6 +26486,9 @@
       <c r="F359" t="s">
         <v>897</v>
       </c>
+      <c r="G359" t="s">
+        <v>897</v>
+      </c>
       <c r="H359">
         <v>2</v>
       </c>
@@ -25507,6 +26581,9 @@
       <c r="F360" t="s">
         <v>897</v>
       </c>
+      <c r="G360" t="s">
+        <v>897</v>
+      </c>
       <c r="H360">
         <v>2</v>
       </c>
@@ -25599,6 +26676,9 @@
       <c r="F361" t="s">
         <v>897</v>
       </c>
+      <c r="G361" t="s">
+        <v>897</v>
+      </c>
       <c r="H361">
         <v>2</v>
       </c>
@@ -25691,6 +26771,9 @@
       <c r="F362" t="s">
         <v>897</v>
       </c>
+      <c r="G362" t="s">
+        <v>897</v>
+      </c>
       <c r="H362">
         <v>2</v>
       </c>
@@ -25783,6 +26866,9 @@
       <c r="F363" t="s">
         <v>897</v>
       </c>
+      <c r="G363" t="s">
+        <v>897</v>
+      </c>
       <c r="H363">
         <v>2</v>
       </c>
@@ -25875,6 +26961,9 @@
       <c r="F364" t="s">
         <v>897</v>
       </c>
+      <c r="G364" t="s">
+        <v>897</v>
+      </c>
       <c r="H364">
         <v>2</v>
       </c>
@@ -25967,6 +27056,9 @@
       <c r="F365" t="s">
         <v>897</v>
       </c>
+      <c r="G365" t="s">
+        <v>897</v>
+      </c>
       <c r="H365">
         <v>2</v>
       </c>
@@ -26059,6 +27151,9 @@
       <c r="F366" t="s">
         <v>897</v>
       </c>
+      <c r="G366" t="s">
+        <v>897</v>
+      </c>
       <c r="H366">
         <v>2</v>
       </c>
@@ -26151,6 +27246,9 @@
       <c r="F367" t="s">
         <v>897</v>
       </c>
+      <c r="G367" t="s">
+        <v>897</v>
+      </c>
       <c r="H367">
         <v>2</v>
       </c>
@@ -26204,6 +27302,9 @@
       <c r="F368" t="s">
         <v>897</v>
       </c>
+      <c r="G368" t="s">
+        <v>897</v>
+      </c>
       <c r="H368">
         <v>2</v>
       </c>
@@ -26305,6 +27406,9 @@
       <c r="F369" t="s">
         <v>897</v>
       </c>
+      <c r="G369" t="s">
+        <v>897</v>
+      </c>
       <c r="H369">
         <v>2</v>
       </c>
@@ -26406,6 +27510,9 @@
       <c r="F370" t="s">
         <v>897</v>
       </c>
+      <c r="G370" t="s">
+        <v>897</v>
+      </c>
       <c r="H370">
         <v>2</v>
       </c>
@@ -26507,6 +27614,9 @@
       <c r="F371" t="s">
         <v>897</v>
       </c>
+      <c r="G371" t="s">
+        <v>897</v>
+      </c>
       <c r="H371">
         <v>2</v>
       </c>
@@ -26608,6 +27718,9 @@
       <c r="F372" t="s">
         <v>897</v>
       </c>
+      <c r="G372" t="s">
+        <v>897</v>
+      </c>
       <c r="H372">
         <v>2</v>
       </c>
@@ -26709,6 +27822,9 @@
       <c r="F373" t="s">
         <v>897</v>
       </c>
+      <c r="G373" t="s">
+        <v>897</v>
+      </c>
       <c r="H373">
         <v>1</v>
       </c>
@@ -26810,6 +27926,9 @@
       <c r="F374" t="s">
         <v>897</v>
       </c>
+      <c r="G374" t="s">
+        <v>897</v>
+      </c>
       <c r="H374">
         <v>1</v>
       </c>
@@ -26911,6 +28030,9 @@
       <c r="F375" t="s">
         <v>897</v>
       </c>
+      <c r="G375" t="s">
+        <v>897</v>
+      </c>
       <c r="H375">
         <v>1</v>
       </c>
@@ -27012,6 +28134,9 @@
       <c r="F376" t="s">
         <v>897</v>
       </c>
+      <c r="G376" t="s">
+        <v>897</v>
+      </c>
       <c r="H376">
         <v>1</v>
       </c>
@@ -27113,6 +28238,9 @@
       <c r="F377" t="s">
         <v>897</v>
       </c>
+      <c r="G377" t="s">
+        <v>897</v>
+      </c>
       <c r="H377">
         <v>1</v>
       </c>
@@ -27214,6 +28342,9 @@
       <c r="F378" t="s">
         <v>897</v>
       </c>
+      <c r="G378" t="s">
+        <v>897</v>
+      </c>
       <c r="H378">
         <v>1</v>
       </c>
@@ -27315,6 +28446,9 @@
       <c r="F379" t="s">
         <v>897</v>
       </c>
+      <c r="G379" t="s">
+        <v>897</v>
+      </c>
       <c r="H379">
         <v>1</v>
       </c>
@@ -27416,6 +28550,9 @@
       <c r="F380" t="s">
         <v>897</v>
       </c>
+      <c r="G380" t="s">
+        <v>897</v>
+      </c>
       <c r="H380">
         <v>1</v>
       </c>
@@ -27517,6 +28654,9 @@
       <c r="F381" t="s">
         <v>897</v>
       </c>
+      <c r="G381" t="s">
+        <v>897</v>
+      </c>
       <c r="H381">
         <v>1</v>
       </c>
@@ -27618,6 +28758,9 @@
       <c r="F382" t="s">
         <v>897</v>
       </c>
+      <c r="G382" t="s">
+        <v>897</v>
+      </c>
       <c r="H382">
         <v>1</v>
       </c>
@@ -27719,6 +28862,9 @@
       <c r="F383" t="s">
         <v>897</v>
       </c>
+      <c r="G383" t="s">
+        <v>897</v>
+      </c>
       <c r="H383">
         <v>1</v>
       </c>
@@ -27820,6 +28966,9 @@
       <c r="F384" t="s">
         <v>897</v>
       </c>
+      <c r="G384" t="s">
+        <v>897</v>
+      </c>
       <c r="H384">
         <v>2</v>
       </c>
@@ -27921,6 +29070,9 @@
       <c r="F385" t="s">
         <v>897</v>
       </c>
+      <c r="G385" t="s">
+        <v>897</v>
+      </c>
       <c r="H385">
         <v>2</v>
       </c>
@@ -28022,6 +29174,9 @@
       <c r="F386" t="s">
         <v>897</v>
       </c>
+      <c r="G386" t="s">
+        <v>897</v>
+      </c>
       <c r="H386">
         <v>2</v>
       </c>
@@ -28123,6 +29278,9 @@
       <c r="F387" t="s">
         <v>897</v>
       </c>
+      <c r="G387" t="s">
+        <v>897</v>
+      </c>
       <c r="H387">
         <v>2</v>
       </c>
@@ -28224,6 +29382,9 @@
       <c r="F388" t="s">
         <v>897</v>
       </c>
+      <c r="G388" t="s">
+        <v>897</v>
+      </c>
       <c r="H388">
         <v>2</v>
       </c>
@@ -28325,6 +29486,9 @@
       <c r="F389" t="s">
         <v>897</v>
       </c>
+      <c r="G389" t="s">
+        <v>897</v>
+      </c>
       <c r="H389">
         <v>2</v>
       </c>
@@ -28426,6 +29590,9 @@
       <c r="F390" t="s">
         <v>897</v>
       </c>
+      <c r="G390" t="s">
+        <v>897</v>
+      </c>
       <c r="H390">
         <v>1</v>
       </c>
@@ -28527,6 +29694,9 @@
       <c r="F391" t="s">
         <v>897</v>
       </c>
+      <c r="G391" t="s">
+        <v>897</v>
+      </c>
       <c r="H391">
         <v>1</v>
       </c>
@@ -28628,6 +29798,9 @@
       <c r="F392" t="s">
         <v>897</v>
       </c>
+      <c r="G392" t="s">
+        <v>897</v>
+      </c>
       <c r="H392">
         <v>1</v>
       </c>
@@ -28729,6 +29902,9 @@
       <c r="F393" t="s">
         <v>897</v>
       </c>
+      <c r="G393" t="s">
+        <v>897</v>
+      </c>
       <c r="H393">
         <v>1</v>
       </c>
@@ -28830,6 +30006,9 @@
       <c r="F394" t="s">
         <v>897</v>
       </c>
+      <c r="G394" t="s">
+        <v>897</v>
+      </c>
       <c r="H394">
         <v>1</v>
       </c>
@@ -28931,6 +30110,9 @@
       <c r="F395" t="s">
         <v>897</v>
       </c>
+      <c r="G395" t="s">
+        <v>897</v>
+      </c>
       <c r="H395">
         <v>1</v>
       </c>
@@ -29032,6 +30214,9 @@
       <c r="F396" t="s">
         <v>897</v>
       </c>
+      <c r="G396" t="s">
+        <v>897</v>
+      </c>
       <c r="H396">
         <v>2</v>
       </c>
@@ -29133,6 +30318,9 @@
       <c r="F397" t="s">
         <v>897</v>
       </c>
+      <c r="G397" t="s">
+        <v>897</v>
+      </c>
       <c r="H397">
         <v>2</v>
       </c>
@@ -29234,6 +30422,9 @@
       <c r="F398" t="s">
         <v>897</v>
       </c>
+      <c r="G398" t="s">
+        <v>897</v>
+      </c>
       <c r="H398">
         <v>2</v>
       </c>
@@ -29335,6 +30526,9 @@
       <c r="F399" t="s">
         <v>897</v>
       </c>
+      <c r="G399" t="s">
+        <v>897</v>
+      </c>
       <c r="H399">
         <v>2</v>
       </c>
@@ -29436,6 +30630,9 @@
       <c r="F400" t="s">
         <v>897</v>
       </c>
+      <c r="G400" t="s">
+        <v>897</v>
+      </c>
       <c r="H400">
         <v>2</v>
       </c>
@@ -29537,6 +30734,9 @@
       <c r="F401" t="s">
         <v>897</v>
       </c>
+      <c r="G401" t="s">
+        <v>897</v>
+      </c>
       <c r="H401">
         <v>2</v>
       </c>
@@ -29638,6 +30838,9 @@
       <c r="F402" t="s">
         <v>897</v>
       </c>
+      <c r="G402" t="s">
+        <v>897</v>
+      </c>
       <c r="H402">
         <v>2</v>
       </c>
@@ -29739,6 +30942,9 @@
       <c r="F403" t="s">
         <v>897</v>
       </c>
+      <c r="G403" t="s">
+        <v>897</v>
+      </c>
       <c r="H403">
         <v>2</v>
       </c>
@@ -29840,6 +31046,9 @@
       <c r="F404" t="s">
         <v>897</v>
       </c>
+      <c r="G404" t="s">
+        <v>897</v>
+      </c>
       <c r="H404">
         <v>2</v>
       </c>
@@ -29941,6 +31150,9 @@
       <c r="F405" t="s">
         <v>897</v>
       </c>
+      <c r="G405" t="s">
+        <v>897</v>
+      </c>
       <c r="H405">
         <v>2</v>
       </c>
@@ -30042,6 +31254,9 @@
       <c r="F406" t="s">
         <v>897</v>
       </c>
+      <c r="G406" t="s">
+        <v>897</v>
+      </c>
       <c r="H406">
         <v>2</v>
       </c>
@@ -30143,6 +31358,9 @@
       <c r="F407" t="s">
         <v>897</v>
       </c>
+      <c r="G407" t="s">
+        <v>897</v>
+      </c>
       <c r="H407">
         <v>2</v>
       </c>
@@ -30244,6 +31462,9 @@
       <c r="F408" t="s">
         <v>897</v>
       </c>
+      <c r="G408" t="s">
+        <v>897</v>
+      </c>
       <c r="H408">
         <v>2</v>
       </c>
@@ -30345,6 +31566,9 @@
       <c r="F409" t="s">
         <v>897</v>
       </c>
+      <c r="G409" t="s">
+        <v>897</v>
+      </c>
       <c r="H409">
         <v>3</v>
       </c>
@@ -30398,6 +31622,9 @@
       <c r="F410" t="s">
         <v>897</v>
       </c>
+      <c r="G410" t="s">
+        <v>897</v>
+      </c>
       <c r="H410">
         <v>3</v>
       </c>
@@ -30451,6 +31678,9 @@
       <c r="F411" t="s">
         <v>897</v>
       </c>
+      <c r="G411" t="s">
+        <v>897</v>
+      </c>
       <c r="H411">
         <v>3</v>
       </c>
@@ -30504,6 +31734,9 @@
       <c r="F412" t="s">
         <v>896</v>
       </c>
+      <c r="G412" t="s">
+        <v>897</v>
+      </c>
       <c r="H412">
         <v>3</v>
       </c>
@@ -30557,6 +31790,9 @@
       <c r="F413" t="s">
         <v>897</v>
       </c>
+      <c r="G413" t="s">
+        <v>896</v>
+      </c>
       <c r="H413">
         <v>2</v>
       </c>
@@ -30610,6 +31846,9 @@
       <c r="F414" t="s">
         <v>896</v>
       </c>
+      <c r="G414" t="s">
+        <v>897</v>
+      </c>
       <c r="H414">
         <v>3</v>
       </c>
@@ -30663,6 +31902,9 @@
       <c r="F415" t="s">
         <v>897</v>
       </c>
+      <c r="G415" t="s">
+        <v>897</v>
+      </c>
       <c r="H415">
         <v>2</v>
       </c>
@@ -30716,6 +31958,9 @@
       <c r="F416" t="s">
         <v>896</v>
       </c>
+      <c r="G416" t="s">
+        <v>896</v>
+      </c>
       <c r="H416">
         <v>2</v>
       </c>
@@ -30769,6 +32014,9 @@
       <c r="F417" t="s">
         <v>896</v>
       </c>
+      <c r="G417" t="s">
+        <v>896</v>
+      </c>
       <c r="H417">
         <v>2</v>
       </c>
@@ -30822,6 +32070,9 @@
       <c r="F418" t="s">
         <v>897</v>
       </c>
+      <c r="G418" t="s">
+        <v>896</v>
+      </c>
       <c r="H418">
         <v>2</v>
       </c>
@@ -30875,6 +32126,9 @@
       <c r="F419" t="s">
         <v>897</v>
       </c>
+      <c r="G419" t="s">
+        <v>896</v>
+      </c>
       <c r="H419">
         <v>2</v>
       </c>
@@ -30928,6 +32182,9 @@
       <c r="F420" t="s">
         <v>897</v>
       </c>
+      <c r="G420" t="s">
+        <v>896</v>
+      </c>
       <c r="H420">
         <v>2</v>
       </c>
@@ -30981,6 +32238,9 @@
       <c r="F421" t="s">
         <v>897</v>
       </c>
+      <c r="G421" t="s">
+        <v>896</v>
+      </c>
       <c r="H421">
         <v>2</v>
       </c>
@@ -31034,6 +32294,9 @@
       <c r="F422" t="s">
         <v>897</v>
       </c>
+      <c r="G422" t="s">
+        <v>896</v>
+      </c>
       <c r="H422">
         <v>2</v>
       </c>
@@ -31087,6 +32350,9 @@
       <c r="F423" t="s">
         <v>897</v>
       </c>
+      <c r="G423" t="s">
+        <v>896</v>
+      </c>
       <c r="H423">
         <v>2</v>
       </c>
@@ -31140,6 +32406,9 @@
       <c r="F424" t="s">
         <v>897</v>
       </c>
+      <c r="G424" t="s">
+        <v>896</v>
+      </c>
       <c r="H424">
         <v>2</v>
       </c>
@@ -31193,6 +32462,9 @@
       <c r="F425" t="s">
         <v>897</v>
       </c>
+      <c r="G425" t="s">
+        <v>896</v>
+      </c>
       <c r="H425">
         <v>2</v>
       </c>
@@ -31246,6 +32518,9 @@
       <c r="F426" t="s">
         <v>897</v>
       </c>
+      <c r="G426" t="s">
+        <v>896</v>
+      </c>
       <c r="H426" t="s">
         <v>898</v>
       </c>
@@ -31299,6 +32574,9 @@
       <c r="F427" t="s">
         <v>897</v>
       </c>
+      <c r="G427" t="s">
+        <v>896</v>
+      </c>
       <c r="H427" t="s">
         <v>898</v>
       </c>
@@ -31352,6 +32630,9 @@
       <c r="F428" t="s">
         <v>897</v>
       </c>
+      <c r="G428" t="s">
+        <v>896</v>
+      </c>
       <c r="H428" t="s">
         <v>898</v>
       </c>
@@ -31405,6 +32686,9 @@
       <c r="F429" t="s">
         <v>897</v>
       </c>
+      <c r="G429" t="s">
+        <v>897</v>
+      </c>
       <c r="H429">
         <v>2</v>
       </c>
@@ -31458,6 +32742,9 @@
       <c r="F430" t="s">
         <v>897</v>
       </c>
+      <c r="G430" t="s">
+        <v>897</v>
+      </c>
       <c r="H430">
         <v>2</v>
       </c>
@@ -31508,6 +32795,9 @@
       <c r="F431" t="s">
         <v>897</v>
       </c>
+      <c r="G431" t="s">
+        <v>896</v>
+      </c>
       <c r="H431">
         <v>2</v>
       </c>
@@ -31561,6 +32851,9 @@
       <c r="F432" t="s">
         <v>897</v>
       </c>
+      <c r="G432" t="s">
+        <v>897</v>
+      </c>
       <c r="H432">
         <v>3</v>
       </c>
@@ -31614,6 +32907,9 @@
       <c r="F433" t="s">
         <v>897</v>
       </c>
+      <c r="G433" t="s">
+        <v>896</v>
+      </c>
       <c r="H433">
         <v>3</v>
       </c>
@@ -31667,6 +32963,9 @@
       <c r="F434" t="s">
         <v>897</v>
       </c>
+      <c r="G434" t="s">
+        <v>897</v>
+      </c>
       <c r="H434">
         <v>1</v>
       </c>
@@ -31768,6 +33067,9 @@
       <c r="F435" t="s">
         <v>897</v>
       </c>
+      <c r="G435" t="s">
+        <v>897</v>
+      </c>
       <c r="H435">
         <v>1</v>
       </c>
@@ -31869,6 +33171,9 @@
       <c r="F436" t="s">
         <v>897</v>
       </c>
+      <c r="G436" t="s">
+        <v>897</v>
+      </c>
       <c r="H436">
         <v>1</v>
       </c>
@@ -31970,6 +33275,9 @@
       <c r="F437" t="s">
         <v>897</v>
       </c>
+      <c r="G437" t="s">
+        <v>897</v>
+      </c>
       <c r="H437">
         <v>1</v>
       </c>
@@ -32023,6 +33331,9 @@
       <c r="F438" t="s">
         <v>897</v>
       </c>
+      <c r="G438" t="s">
+        <v>897</v>
+      </c>
       <c r="H438">
         <v>1</v>
       </c>
@@ -32124,6 +33435,9 @@
       <c r="F439" t="s">
         <v>897</v>
       </c>
+      <c r="G439" t="s">
+        <v>897</v>
+      </c>
       <c r="H439">
         <v>1</v>
       </c>
@@ -32225,6 +33539,9 @@
       <c r="F440" t="s">
         <v>897</v>
       </c>
+      <c r="G440" t="s">
+        <v>897</v>
+      </c>
       <c r="H440">
         <v>1</v>
       </c>
@@ -32326,6 +33643,9 @@
       <c r="F441" t="s">
         <v>897</v>
       </c>
+      <c r="G441" t="s">
+        <v>897</v>
+      </c>
       <c r="H441">
         <v>1</v>
       </c>
@@ -32382,6 +33702,9 @@
       <c r="F442" t="s">
         <v>897</v>
       </c>
+      <c r="G442" t="s">
+        <v>897</v>
+      </c>
       <c r="H442">
         <v>1</v>
       </c>
@@ -32483,6 +33806,9 @@
       <c r="F443" t="s">
         <v>897</v>
       </c>
+      <c r="G443" t="s">
+        <v>897</v>
+      </c>
       <c r="H443">
         <v>1</v>
       </c>
@@ -32584,6 +33910,9 @@
       <c r="F444" t="s">
         <v>897</v>
       </c>
+      <c r="G444" t="s">
+        <v>897</v>
+      </c>
       <c r="H444">
         <v>1</v>
       </c>
@@ -32637,6 +33966,9 @@
       <c r="F445" t="s">
         <v>897</v>
       </c>
+      <c r="G445" t="s">
+        <v>897</v>
+      </c>
       <c r="H445">
         <v>1</v>
       </c>
@@ -32738,6 +34070,9 @@
       <c r="F446" t="s">
         <v>897</v>
       </c>
+      <c r="G446" t="s">
+        <v>897</v>
+      </c>
       <c r="H446">
         <v>1</v>
       </c>
@@ -32839,6 +34174,9 @@
       <c r="F447" t="s">
         <v>897</v>
       </c>
+      <c r="G447" t="s">
+        <v>897</v>
+      </c>
       <c r="H447">
         <v>1</v>
       </c>
@@ -32931,6 +34269,9 @@
       <c r="F448" t="s">
         <v>897</v>
       </c>
+      <c r="G448" t="s">
+        <v>897</v>
+      </c>
       <c r="H448">
         <v>1</v>
       </c>
@@ -33029,6 +34370,9 @@
       <c r="F449" t="s">
         <v>897</v>
       </c>
+      <c r="G449" t="s">
+        <v>897</v>
+      </c>
       <c r="H449">
         <v>3</v>
       </c>
@@ -33127,6 +34471,9 @@
       <c r="F450" t="s">
         <v>896</v>
       </c>
+      <c r="G450" t="s">
+        <v>897</v>
+      </c>
       <c r="H450">
         <v>3</v>
       </c>
@@ -33180,6 +34527,9 @@
       <c r="F451" t="s">
         <v>896</v>
       </c>
+      <c r="G451" t="s">
+        <v>897</v>
+      </c>
       <c r="H451">
         <v>3</v>
       </c>
@@ -33233,6 +34583,9 @@
       <c r="F452" t="s">
         <v>896</v>
       </c>
+      <c r="G452" t="s">
+        <v>897</v>
+      </c>
       <c r="H452">
         <v>3</v>
       </c>
@@ -33286,6 +34639,9 @@
       <c r="F453" t="s">
         <v>896</v>
       </c>
+      <c r="G453" t="s">
+        <v>897</v>
+      </c>
       <c r="H453">
         <v>3</v>
       </c>
@@ -33339,6 +34695,9 @@
       <c r="F454" t="s">
         <v>896</v>
       </c>
+      <c r="G454" t="s">
+        <v>896</v>
+      </c>
       <c r="H454">
         <v>3</v>
       </c>
@@ -33392,6 +34751,9 @@
       <c r="F455" t="s">
         <v>897</v>
       </c>
+      <c r="G455" t="s">
+        <v>896</v>
+      </c>
       <c r="N455">
         <v>5</v>
       </c>
@@ -33424,6 +34786,9 @@
       <c r="F456" t="s">
         <v>897</v>
       </c>
+      <c r="G456" t="s">
+        <v>896</v>
+      </c>
       <c r="N456">
         <v>5</v>
       </c>
@@ -33459,6 +34824,9 @@
       <c r="F457" t="s">
         <v>897</v>
       </c>
+      <c r="G457" t="s">
+        <v>896</v>
+      </c>
       <c r="N457">
         <v>5</v>
       </c>
@@ -33494,6 +34862,9 @@
       <c r="F458" t="s">
         <v>897</v>
       </c>
+      <c r="G458" t="s">
+        <v>896</v>
+      </c>
       <c r="N458">
         <v>1</v>
       </c>
@@ -33526,6 +34897,9 @@
       <c r="F459" t="s">
         <v>897</v>
       </c>
+      <c r="G459" t="s">
+        <v>896</v>
+      </c>
       <c r="N459">
         <v>1</v>
       </c>
@@ -33561,6 +34935,9 @@
       <c r="F460" t="s">
         <v>897</v>
       </c>
+      <c r="G460" t="s">
+        <v>897</v>
+      </c>
       <c r="H460">
         <v>3</v>
       </c>
@@ -33662,6 +35039,9 @@
       <c r="F461" t="s">
         <v>897</v>
       </c>
+      <c r="G461" t="s">
+        <v>896</v>
+      </c>
       <c r="H461">
         <v>2</v>
       </c>
@@ -33715,6 +35095,9 @@
       <c r="F462" t="s">
         <v>897</v>
       </c>
+      <c r="G462" t="s">
+        <v>896</v>
+      </c>
       <c r="N462">
         <v>5</v>
       </c>
@@ -33747,6 +35130,9 @@
       <c r="F463" t="s">
         <v>897</v>
       </c>
+      <c r="G463" t="s">
+        <v>896</v>
+      </c>
       <c r="N463">
         <v>5</v>
       </c>
@@ -33782,6 +35168,9 @@
       <c r="F464" t="s">
         <v>897</v>
       </c>
+      <c r="G464" t="s">
+        <v>896</v>
+      </c>
       <c r="N464">
         <v>5</v>
       </c>
@@ -33817,6 +35206,9 @@
       <c r="F465" t="s">
         <v>897</v>
       </c>
+      <c r="G465" t="s">
+        <v>896</v>
+      </c>
       <c r="N465">
         <v>5</v>
       </c>
@@ -33852,6 +35244,9 @@
       <c r="F466" t="s">
         <v>897</v>
       </c>
+      <c r="G466" t="s">
+        <v>896</v>
+      </c>
       <c r="N466">
         <v>5</v>
       </c>
@@ -33887,6 +35282,9 @@
       <c r="F467" t="s">
         <v>897</v>
       </c>
+      <c r="G467" t="s">
+        <v>896</v>
+      </c>
       <c r="N467">
         <v>5</v>
       </c>
@@ -33919,6 +35317,9 @@
       <c r="F468" t="s">
         <v>897</v>
       </c>
+      <c r="G468" t="s">
+        <v>896</v>
+      </c>
       <c r="N468">
         <v>5</v>
       </c>
@@ -33954,6 +35355,9 @@
       <c r="F469" t="s">
         <v>897</v>
       </c>
+      <c r="G469" t="s">
+        <v>896</v>
+      </c>
       <c r="N469">
         <v>5</v>
       </c>
@@ -33989,6 +35393,9 @@
       <c r="F470" t="s">
         <v>897</v>
       </c>
+      <c r="G470" t="s">
+        <v>896</v>
+      </c>
       <c r="N470">
         <v>5</v>
       </c>
@@ -34024,6 +35431,9 @@
       <c r="F471" t="s">
         <v>897</v>
       </c>
+      <c r="G471" t="s">
+        <v>896</v>
+      </c>
       <c r="N471">
         <v>5</v>
       </c>
@@ -34059,6 +35469,9 @@
       <c r="F472" t="s">
         <v>897</v>
       </c>
+      <c r="G472" t="s">
+        <v>896</v>
+      </c>
       <c r="N472">
         <v>5</v>
       </c>
@@ -34091,6 +35504,9 @@
       <c r="F473" t="s">
         <v>897</v>
       </c>
+      <c r="G473" t="s">
+        <v>896</v>
+      </c>
       <c r="N473">
         <v>5</v>
       </c>
@@ -34126,6 +35542,9 @@
       <c r="F474" t="s">
         <v>897</v>
       </c>
+      <c r="G474" t="s">
+        <v>896</v>
+      </c>
       <c r="N474">
         <v>5</v>
       </c>
@@ -34161,6 +35580,9 @@
       <c r="F475" t="s">
         <v>897</v>
       </c>
+      <c r="G475" t="s">
+        <v>896</v>
+      </c>
       <c r="N475">
         <v>5</v>
       </c>
@@ -34196,6 +35618,9 @@
       <c r="F476" t="s">
         <v>897</v>
       </c>
+      <c r="G476" t="s">
+        <v>896</v>
+      </c>
       <c r="N476">
         <v>5</v>
       </c>
@@ -34231,6 +35656,9 @@
       <c r="F477" t="s">
         <v>897</v>
       </c>
+      <c r="G477" t="s">
+        <v>896</v>
+      </c>
       <c r="N477">
         <v>5</v>
       </c>
@@ -34266,6 +35694,9 @@
       <c r="F478" t="s">
         <v>897</v>
       </c>
+      <c r="G478" t="s">
+        <v>896</v>
+      </c>
       <c r="N478">
         <v>5</v>
       </c>
@@ -34301,6 +35732,9 @@
       <c r="F479" t="s">
         <v>897</v>
       </c>
+      <c r="G479" t="s">
+        <v>896</v>
+      </c>
       <c r="N479">
         <v>5</v>
       </c>
@@ -34333,6 +35767,9 @@
       <c r="F480" t="s">
         <v>897</v>
       </c>
+      <c r="G480" t="s">
+        <v>896</v>
+      </c>
       <c r="N480">
         <v>5</v>
       </c>
@@ -34368,6 +35805,9 @@
       <c r="F481" t="s">
         <v>897</v>
       </c>
+      <c r="G481" t="s">
+        <v>896</v>
+      </c>
       <c r="N481">
         <v>5</v>
       </c>
@@ -34400,6 +35840,9 @@
       <c r="F482" t="s">
         <v>897</v>
       </c>
+      <c r="G482" t="s">
+        <v>896</v>
+      </c>
       <c r="N482">
         <v>5</v>
       </c>
@@ -34435,6 +35878,9 @@
       <c r="F483" t="s">
         <v>897</v>
       </c>
+      <c r="G483" t="s">
+        <v>896</v>
+      </c>
       <c r="N483">
         <v>5</v>
       </c>
@@ -34470,6 +35916,9 @@
       <c r="F484" t="s">
         <v>897</v>
       </c>
+      <c r="G484" t="s">
+        <v>896</v>
+      </c>
       <c r="N484">
         <v>5</v>
       </c>
@@ -34502,6 +35951,9 @@
       <c r="F485" t="s">
         <v>897</v>
       </c>
+      <c r="G485" t="s">
+        <v>896</v>
+      </c>
       <c r="N485">
         <v>5</v>
       </c>
@@ -34537,6 +35989,9 @@
       <c r="F486" t="s">
         <v>897</v>
       </c>
+      <c r="G486" t="s">
+        <v>896</v>
+      </c>
       <c r="N486">
         <v>5</v>
       </c>
@@ -34572,6 +36027,9 @@
       <c r="F487" t="s">
         <v>897</v>
       </c>
+      <c r="G487" t="s">
+        <v>896</v>
+      </c>
       <c r="N487">
         <v>1</v>
       </c>
@@ -34604,6 +36062,9 @@
       <c r="F488" t="s">
         <v>897</v>
       </c>
+      <c r="G488" t="s">
+        <v>896</v>
+      </c>
       <c r="N488">
         <v>1</v>
       </c>
@@ -34633,6 +36094,9 @@
       <c r="F489" t="s">
         <v>897</v>
       </c>
+      <c r="G489" t="s">
+        <v>896</v>
+      </c>
       <c r="N489">
         <v>5</v>
       </c>
@@ -34668,6 +36132,9 @@
       <c r="F490" t="s">
         <v>897</v>
       </c>
+      <c r="G490" t="s">
+        <v>896</v>
+      </c>
       <c r="N490">
         <v>5</v>
       </c>
@@ -34703,6 +36170,9 @@
       <c r="F491" t="s">
         <v>897</v>
       </c>
+      <c r="G491" t="s">
+        <v>896</v>
+      </c>
       <c r="N491">
         <v>5</v>
       </c>
@@ -34738,6 +36208,9 @@
       <c r="F492" t="s">
         <v>897</v>
       </c>
+      <c r="G492" t="s">
+        <v>896</v>
+      </c>
       <c r="N492">
         <v>5</v>
       </c>
@@ -34773,6 +36246,9 @@
       <c r="F493" t="s">
         <v>897</v>
       </c>
+      <c r="G493" t="s">
+        <v>896</v>
+      </c>
       <c r="N493">
         <v>5</v>
       </c>
@@ -34805,6 +36281,9 @@
       <c r="F494" t="s">
         <v>897</v>
       </c>
+      <c r="G494" t="s">
+        <v>896</v>
+      </c>
       <c r="N494">
         <v>5</v>
       </c>
@@ -34840,6 +36319,9 @@
       <c r="F495" t="s">
         <v>897</v>
       </c>
+      <c r="G495" t="s">
+        <v>896</v>
+      </c>
       <c r="N495">
         <v>5</v>
       </c>
@@ -34875,6 +36357,9 @@
       <c r="F496" t="s">
         <v>897</v>
       </c>
+      <c r="G496" t="s">
+        <v>896</v>
+      </c>
       <c r="N496">
         <v>5</v>
       </c>
@@ -34907,6 +36392,9 @@
       <c r="F497" t="s">
         <v>897</v>
       </c>
+      <c r="G497" t="s">
+        <v>896</v>
+      </c>
       <c r="N497">
         <v>5</v>
       </c>
@@ -34942,6 +36430,9 @@
       <c r="F498" t="s">
         <v>897</v>
       </c>
+      <c r="G498" t="s">
+        <v>896</v>
+      </c>
       <c r="N498">
         <v>5</v>
       </c>
@@ -34977,6 +36468,9 @@
       <c r="F499" t="s">
         <v>897</v>
       </c>
+      <c r="G499" t="s">
+        <v>896</v>
+      </c>
       <c r="N499">
         <v>5</v>
       </c>
@@ -35012,6 +36506,9 @@
       <c r="F500" t="s">
         <v>897</v>
       </c>
+      <c r="G500" t="s">
+        <v>896</v>
+      </c>
       <c r="N500">
         <v>5</v>
       </c>
@@ -35047,6 +36544,9 @@
       <c r="F501" t="s">
         <v>897</v>
       </c>
+      <c r="G501" t="s">
+        <v>896</v>
+      </c>
       <c r="N501">
         <v>5</v>
       </c>
@@ -35082,6 +36582,9 @@
       <c r="F502" t="s">
         <v>897</v>
       </c>
+      <c r="G502" t="s">
+        <v>896</v>
+      </c>
       <c r="N502">
         <v>5</v>
       </c>
@@ -35117,6 +36620,9 @@
       <c r="F503" t="s">
         <v>897</v>
       </c>
+      <c r="G503" t="s">
+        <v>896</v>
+      </c>
       <c r="N503">
         <v>5</v>
       </c>
@@ -35152,6 +36658,9 @@
       <c r="F504" t="s">
         <v>897</v>
       </c>
+      <c r="G504" t="s">
+        <v>896</v>
+      </c>
       <c r="N504">
         <v>5</v>
       </c>
@@ -35187,6 +36696,9 @@
       <c r="F505" t="s">
         <v>897</v>
       </c>
+      <c r="G505" t="s">
+        <v>896</v>
+      </c>
       <c r="N505">
         <v>5</v>
       </c>
@@ -35222,6 +36734,9 @@
       <c r="F506" t="s">
         <v>897</v>
       </c>
+      <c r="G506" t="s">
+        <v>896</v>
+      </c>
       <c r="N506">
         <v>5</v>
       </c>
@@ -35257,6 +36772,9 @@
       <c r="F507" t="s">
         <v>897</v>
       </c>
+      <c r="G507" t="s">
+        <v>896</v>
+      </c>
       <c r="N507">
         <v>5</v>
       </c>
@@ -35289,6 +36807,9 @@
       <c r="F508" t="s">
         <v>897</v>
       </c>
+      <c r="G508" t="s">
+        <v>896</v>
+      </c>
       <c r="N508">
         <v>5</v>
       </c>
@@ -35324,6 +36845,9 @@
       <c r="F509" t="s">
         <v>897</v>
       </c>
+      <c r="G509" t="s">
+        <v>896</v>
+      </c>
       <c r="N509">
         <v>5</v>
       </c>
@@ -35356,6 +36880,9 @@
       <c r="F510" t="s">
         <v>897</v>
       </c>
+      <c r="G510" t="s">
+        <v>896</v>
+      </c>
       <c r="N510">
         <v>5</v>
       </c>
@@ -35391,6 +36918,9 @@
       <c r="F511" t="s">
         <v>897</v>
       </c>
+      <c r="G511" t="s">
+        <v>896</v>
+      </c>
       <c r="N511">
         <v>5</v>
       </c>
@@ -35426,6 +36956,9 @@
       <c r="F512" t="s">
         <v>897</v>
       </c>
+      <c r="G512" t="s">
+        <v>896</v>
+      </c>
       <c r="N512">
         <v>5</v>
       </c>
@@ -35461,6 +36994,9 @@
       <c r="F513" t="s">
         <v>897</v>
       </c>
+      <c r="G513" t="s">
+        <v>896</v>
+      </c>
       <c r="N513">
         <v>5</v>
       </c>
@@ -35496,6 +37032,9 @@
       <c r="F514" t="s">
         <v>897</v>
       </c>
+      <c r="G514" t="s">
+        <v>896</v>
+      </c>
       <c r="N514">
         <v>5</v>
       </c>
@@ -35531,6 +37070,9 @@
       <c r="F515" t="s">
         <v>897</v>
       </c>
+      <c r="G515" t="s">
+        <v>896</v>
+      </c>
       <c r="N515">
         <v>5</v>
       </c>
@@ -35566,6 +37108,9 @@
       <c r="F516" t="s">
         <v>897</v>
       </c>
+      <c r="G516" t="s">
+        <v>896</v>
+      </c>
       <c r="N516">
         <v>5</v>
       </c>
@@ -35601,6 +37146,9 @@
       <c r="F517" t="s">
         <v>897</v>
       </c>
+      <c r="G517" t="s">
+        <v>896</v>
+      </c>
       <c r="N517">
         <v>5</v>
       </c>
@@ -35636,6 +37184,9 @@
       <c r="F518" t="s">
         <v>897</v>
       </c>
+      <c r="G518" t="s">
+        <v>896</v>
+      </c>
       <c r="N518">
         <v>5</v>
       </c>
@@ -35671,6 +37222,9 @@
       <c r="F519" t="s">
         <v>897</v>
       </c>
+      <c r="G519" t="s">
+        <v>896</v>
+      </c>
       <c r="N519">
         <v>5</v>
       </c>
@@ -35706,6 +37260,9 @@
       <c r="F520" t="s">
         <v>897</v>
       </c>
+      <c r="G520" t="s">
+        <v>896</v>
+      </c>
       <c r="N520">
         <v>5</v>
       </c>
@@ -35741,6 +37298,9 @@
       <c r="F521" t="s">
         <v>897</v>
       </c>
+      <c r="G521" t="s">
+        <v>896</v>
+      </c>
       <c r="N521">
         <v>1</v>
       </c>
@@ -35776,6 +37336,9 @@
       <c r="F522" t="s">
         <v>897</v>
       </c>
+      <c r="G522" t="s">
+        <v>896</v>
+      </c>
       <c r="N522">
         <v>5</v>
       </c>
@@ -35811,6 +37374,9 @@
       <c r="F523" t="s">
         <v>897</v>
       </c>
+      <c r="G523" t="s">
+        <v>896</v>
+      </c>
       <c r="N523">
         <v>5</v>
       </c>
@@ -35846,6 +37412,9 @@
       <c r="F524" t="s">
         <v>897</v>
       </c>
+      <c r="G524" t="s">
+        <v>896</v>
+      </c>
       <c r="N524">
         <v>5</v>
       </c>
@@ -35881,6 +37450,9 @@
       <c r="F525" t="s">
         <v>897</v>
       </c>
+      <c r="G525" t="s">
+        <v>896</v>
+      </c>
       <c r="N525">
         <v>5</v>
       </c>
@@ -35916,6 +37488,9 @@
       <c r="F526" t="s">
         <v>897</v>
       </c>
+      <c r="G526" t="s">
+        <v>896</v>
+      </c>
       <c r="N526">
         <v>5</v>
       </c>
@@ -35951,6 +37526,9 @@
       <c r="F527" t="s">
         <v>897</v>
       </c>
+      <c r="G527" t="s">
+        <v>896</v>
+      </c>
       <c r="N527">
         <v>5</v>
       </c>
@@ -35986,6 +37564,9 @@
       <c r="F528" t="s">
         <v>897</v>
       </c>
+      <c r="G528" t="s">
+        <v>896</v>
+      </c>
       <c r="N528">
         <v>5</v>
       </c>
@@ -36021,6 +37602,9 @@
       <c r="F529" t="s">
         <v>897</v>
       </c>
+      <c r="G529" t="s">
+        <v>897</v>
+      </c>
       <c r="H529">
         <v>3</v>
       </c>
@@ -36074,6 +37658,9 @@
       <c r="F530" t="s">
         <v>897</v>
       </c>
+      <c r="G530" t="s">
+        <v>896</v>
+      </c>
       <c r="H530">
         <v>1</v>
       </c>
@@ -36127,6 +37714,9 @@
       <c r="F531" t="s">
         <v>897</v>
       </c>
+      <c r="G531" t="s">
+        <v>897</v>
+      </c>
       <c r="H531">
         <v>2</v>
       </c>
@@ -36228,6 +37818,9 @@
       <c r="F532" t="s">
         <v>897</v>
       </c>
+      <c r="G532" t="s">
+        <v>897</v>
+      </c>
       <c r="H532">
         <v>2</v>
       </c>
@@ -36329,6 +37922,9 @@
       <c r="F533" t="s">
         <v>897</v>
       </c>
+      <c r="G533" t="s">
+        <v>897</v>
+      </c>
       <c r="H533">
         <v>2</v>
       </c>
@@ -36430,6 +38026,9 @@
       <c r="F534" t="s">
         <v>897</v>
       </c>
+      <c r="G534" t="s">
+        <v>897</v>
+      </c>
       <c r="H534">
         <v>2</v>
       </c>
@@ -36531,6 +38130,9 @@
       <c r="F535" t="s">
         <v>897</v>
       </c>
+      <c r="G535" t="s">
+        <v>897</v>
+      </c>
       <c r="H535">
         <v>2</v>
       </c>
@@ -36632,6 +38234,9 @@
       <c r="F536" t="s">
         <v>897</v>
       </c>
+      <c r="G536" t="s">
+        <v>897</v>
+      </c>
       <c r="H536">
         <v>2</v>
       </c>
@@ -36733,6 +38338,9 @@
       <c r="F537" t="s">
         <v>897</v>
       </c>
+      <c r="G537" t="s">
+        <v>897</v>
+      </c>
       <c r="H537">
         <v>2</v>
       </c>
@@ -36834,6 +38442,9 @@
       <c r="F538" t="s">
         <v>897</v>
       </c>
+      <c r="G538" t="s">
+        <v>897</v>
+      </c>
       <c r="H538">
         <v>2</v>
       </c>
@@ -36932,6 +38543,9 @@
       <c r="F539" t="s">
         <v>897</v>
       </c>
+      <c r="G539" t="s">
+        <v>897</v>
+      </c>
       <c r="H539">
         <v>2</v>
       </c>
@@ -36985,6 +38599,9 @@
       <c r="F540" t="s">
         <v>897</v>
       </c>
+      <c r="G540" t="s">
+        <v>897</v>
+      </c>
       <c r="H540">
         <v>2</v>
       </c>
@@ -37038,6 +38655,9 @@
       <c r="F541" t="s">
         <v>897</v>
       </c>
+      <c r="G541" t="s">
+        <v>897</v>
+      </c>
       <c r="H541">
         <v>2</v>
       </c>
@@ -37091,6 +38711,9 @@
       <c r="F542" t="s">
         <v>897</v>
       </c>
+      <c r="G542" t="s">
+        <v>896</v>
+      </c>
       <c r="H542">
         <v>2</v>
       </c>
@@ -37144,6 +38767,9 @@
       <c r="F543" t="s">
         <v>897</v>
       </c>
+      <c r="G543" t="s">
+        <v>896</v>
+      </c>
       <c r="H543">
         <v>2</v>
       </c>
@@ -37197,6 +38823,9 @@
       <c r="F544" t="s">
         <v>897</v>
       </c>
+      <c r="G544" t="s">
+        <v>896</v>
+      </c>
       <c r="H544">
         <v>2</v>
       </c>
@@ -37250,6 +38879,9 @@
       <c r="F545" t="s">
         <v>897</v>
       </c>
+      <c r="G545" t="s">
+        <v>896</v>
+      </c>
       <c r="H545">
         <v>2</v>
       </c>
@@ -37303,6 +38935,9 @@
       <c r="F546" t="s">
         <v>897</v>
       </c>
+      <c r="G546" t="s">
+        <v>896</v>
+      </c>
       <c r="H546">
         <v>2</v>
       </c>
@@ -37356,6 +38991,9 @@
       <c r="F547" t="s">
         <v>897</v>
       </c>
+      <c r="G547" t="s">
+        <v>896</v>
+      </c>
       <c r="H547">
         <v>2</v>
       </c>
@@ -37409,6 +39047,9 @@
       <c r="F548" t="s">
         <v>897</v>
       </c>
+      <c r="G548" t="s">
+        <v>897</v>
+      </c>
       <c r="H548">
         <v>3</v>
       </c>
@@ -37462,6 +39103,9 @@
       <c r="F549" t="s">
         <v>897</v>
       </c>
+      <c r="G549" t="s">
+        <v>897</v>
+      </c>
       <c r="H549">
         <v>3</v>
       </c>
@@ -37515,6 +39159,9 @@
       <c r="F550" t="s">
         <v>896</v>
       </c>
+      <c r="G550" t="s">
+        <v>897</v>
+      </c>
       <c r="H550">
         <v>2</v>
       </c>
@@ -37568,6 +39215,9 @@
       <c r="F551" t="s">
         <v>897</v>
       </c>
+      <c r="G551" t="s">
+        <v>896</v>
+      </c>
       <c r="H551">
         <v>2</v>
       </c>
@@ -37618,6 +39268,9 @@
       <c r="F552" t="s">
         <v>897</v>
       </c>
+      <c r="G552" t="s">
+        <v>896</v>
+      </c>
       <c r="H552">
         <v>1</v>
       </c>
@@ -37671,6 +39324,9 @@
       <c r="F553" t="s">
         <v>897</v>
       </c>
+      <c r="G553" t="s">
+        <v>897</v>
+      </c>
       <c r="H553">
         <v>1</v>
       </c>
@@ -37724,6 +39380,9 @@
       <c r="F554" t="s">
         <v>897</v>
       </c>
+      <c r="G554" t="s">
+        <v>896</v>
+      </c>
       <c r="H554">
         <v>1</v>
       </c>
@@ -37777,6 +39436,9 @@
       <c r="F555" t="s">
         <v>897</v>
       </c>
+      <c r="G555" t="s">
+        <v>896</v>
+      </c>
       <c r="H555">
         <v>1</v>
       </c>
@@ -37830,6 +39492,9 @@
       <c r="F556" t="s">
         <v>897</v>
       </c>
+      <c r="G556" t="s">
+        <v>896</v>
+      </c>
       <c r="H556">
         <v>1</v>
       </c>
@@ -37883,6 +39548,9 @@
       <c r="F557" t="s">
         <v>897</v>
       </c>
+      <c r="G557" t="s">
+        <v>896</v>
+      </c>
       <c r="H557">
         <v>1</v>
       </c>
@@ -37936,6 +39604,9 @@
       <c r="F558" t="s">
         <v>897</v>
       </c>
+      <c r="G558" t="s">
+        <v>897</v>
+      </c>
       <c r="H558">
         <v>1</v>
       </c>
@@ -37989,6 +39660,9 @@
       <c r="F559" t="s">
         <v>896</v>
       </c>
+      <c r="G559" t="s">
+        <v>897</v>
+      </c>
       <c r="H559" t="s">
         <v>898</v>
       </c>
@@ -38042,6 +39716,9 @@
       <c r="F560" t="s">
         <v>897</v>
       </c>
+      <c r="G560" t="s">
+        <v>896</v>
+      </c>
       <c r="H560">
         <v>2</v>
       </c>
@@ -38095,6 +39772,9 @@
       <c r="F561" t="s">
         <v>897</v>
       </c>
+      <c r="G561" t="s">
+        <v>896</v>
+      </c>
       <c r="H561">
         <v>3</v>
       </c>
@@ -38148,6 +39828,9 @@
       <c r="F562" t="s">
         <v>897</v>
       </c>
+      <c r="G562" t="s">
+        <v>896</v>
+      </c>
       <c r="H562">
         <v>3</v>
       </c>
@@ -38201,6 +39884,9 @@
       <c r="F563" t="s">
         <v>896</v>
       </c>
+      <c r="G563" t="s">
+        <v>897</v>
+      </c>
       <c r="H563" t="s">
         <v>898</v>
       </c>
@@ -38254,6 +39940,9 @@
       <c r="F564" t="s">
         <v>897</v>
       </c>
+      <c r="G564" t="s">
+        <v>897</v>
+      </c>
       <c r="H564">
         <v>2</v>
       </c>
@@ -38355,6 +40044,9 @@
       <c r="F565" t="s">
         <v>897</v>
       </c>
+      <c r="G565" t="s">
+        <v>897</v>
+      </c>
       <c r="H565">
         <v>3</v>
       </c>
@@ -38408,6 +40100,9 @@
       <c r="F566" t="s">
         <v>897</v>
       </c>
+      <c r="G566" t="s">
+        <v>897</v>
+      </c>
       <c r="H566">
         <v>3</v>
       </c>
@@ -38461,6 +40156,9 @@
       <c r="F567" t="s">
         <v>897</v>
       </c>
+      <c r="G567" t="s">
+        <v>897</v>
+      </c>
       <c r="H567">
         <v>3</v>
       </c>
@@ -38514,6 +40212,9 @@
       <c r="F568" t="s">
         <v>897</v>
       </c>
+      <c r="G568" t="s">
+        <v>897</v>
+      </c>
       <c r="H568">
         <v>3</v>
       </c>
@@ -38567,6 +40268,9 @@
       <c r="F569" t="s">
         <v>897</v>
       </c>
+      <c r="G569" t="s">
+        <v>897</v>
+      </c>
       <c r="H569">
         <v>3</v>
       </c>
@@ -38620,6 +40324,9 @@
       <c r="F570" t="s">
         <v>897</v>
       </c>
+      <c r="G570" t="s">
+        <v>896</v>
+      </c>
       <c r="H570">
         <v>3</v>
       </c>
@@ -38673,6 +40380,9 @@
       <c r="F571" t="s">
         <v>897</v>
       </c>
+      <c r="G571" t="s">
+        <v>897</v>
+      </c>
       <c r="H571">
         <v>1</v>
       </c>
@@ -38726,6 +40436,9 @@
       <c r="F572" t="s">
         <v>897</v>
       </c>
+      <c r="G572" t="s">
+        <v>897</v>
+      </c>
       <c r="H572">
         <v>1</v>
       </c>
@@ -38779,6 +40492,9 @@
       <c r="F573" t="s">
         <v>897</v>
       </c>
+      <c r="G573" t="s">
+        <v>897</v>
+      </c>
       <c r="H573">
         <v>1</v>
       </c>
@@ -38832,6 +40548,9 @@
       <c r="F574" t="s">
         <v>897</v>
       </c>
+      <c r="G574" t="s">
+        <v>897</v>
+      </c>
       <c r="H574" t="s">
         <v>898</v>
       </c>
@@ -38885,6 +40604,9 @@
       <c r="F575" t="s">
         <v>896</v>
       </c>
+      <c r="G575" t="s">
+        <v>896</v>
+      </c>
       <c r="H575" t="s">
         <v>898</v>
       </c>
@@ -38938,6 +40660,9 @@
       <c r="F576" t="s">
         <v>897</v>
       </c>
+      <c r="G576" t="s">
+        <v>897</v>
+      </c>
       <c r="H576">
         <v>2</v>
       </c>
@@ -38991,6 +40716,9 @@
       <c r="F577" t="s">
         <v>897</v>
       </c>
+      <c r="G577" t="s">
+        <v>897</v>
+      </c>
       <c r="H577">
         <v>3</v>
       </c>
@@ -39044,6 +40772,9 @@
       <c r="F578" t="s">
         <v>896</v>
       </c>
+      <c r="G578" t="s">
+        <v>897</v>
+      </c>
       <c r="H578">
         <v>3</v>
       </c>
@@ -39097,6 +40828,9 @@
       <c r="F579" t="s">
         <v>897</v>
       </c>
+      <c r="G579" t="s">
+        <v>897</v>
+      </c>
       <c r="H579">
         <v>2</v>
       </c>
@@ -39150,6 +40884,9 @@
       <c r="F580" t="s">
         <v>897</v>
       </c>
+      <c r="G580" t="s">
+        <v>896</v>
+      </c>
       <c r="N580">
         <v>5</v>
       </c>
@@ -39185,6 +40922,9 @@
       <c r="F581" t="s">
         <v>897</v>
       </c>
+      <c r="G581" t="s">
+        <v>896</v>
+      </c>
       <c r="N581">
         <v>1</v>
       </c>
@@ -39220,6 +40960,9 @@
       <c r="F582" t="s">
         <v>897</v>
       </c>
+      <c r="G582" t="s">
+        <v>896</v>
+      </c>
       <c r="N582">
         <v>5</v>
       </c>
@@ -39255,6 +40998,9 @@
       <c r="F583" t="s">
         <v>897</v>
       </c>
+      <c r="G583" t="s">
+        <v>896</v>
+      </c>
       <c r="N583">
         <v>5</v>
       </c>
@@ -39290,6 +41036,9 @@
       <c r="F584" t="s">
         <v>897</v>
       </c>
+      <c r="G584" t="s">
+        <v>896</v>
+      </c>
       <c r="N584">
         <v>5</v>
       </c>
@@ -39325,6 +41074,9 @@
       <c r="F585" t="s">
         <v>897</v>
       </c>
+      <c r="G585" t="s">
+        <v>896</v>
+      </c>
       <c r="N585">
         <v>5</v>
       </c>
@@ -39360,6 +41112,9 @@
       <c r="F586" t="s">
         <v>897</v>
       </c>
+      <c r="G586" t="s">
+        <v>896</v>
+      </c>
       <c r="N586">
         <v>5</v>
       </c>
@@ -39395,6 +41150,9 @@
       <c r="F587" t="s">
         <v>897</v>
       </c>
+      <c r="G587" t="s">
+        <v>896</v>
+      </c>
       <c r="N587">
         <v>5</v>
       </c>
@@ -39430,6 +41188,9 @@
       <c r="F588" t="s">
         <v>897</v>
       </c>
+      <c r="G588" t="s">
+        <v>896</v>
+      </c>
       <c r="N588">
         <v>5</v>
       </c>
@@ -39465,6 +41226,9 @@
       <c r="F589" t="s">
         <v>897</v>
       </c>
+      <c r="G589" t="s">
+        <v>896</v>
+      </c>
       <c r="N589">
         <v>5</v>
       </c>
@@ -39500,6 +41264,9 @@
       <c r="F590" t="s">
         <v>897</v>
       </c>
+      <c r="G590" t="s">
+        <v>896</v>
+      </c>
       <c r="N590">
         <v>5</v>
       </c>
@@ -39535,6 +41302,9 @@
       <c r="F591" t="s">
         <v>897</v>
       </c>
+      <c r="G591" t="s">
+        <v>896</v>
+      </c>
       <c r="N591">
         <v>1</v>
       </c>
@@ -39570,6 +41340,9 @@
       <c r="F592" t="s">
         <v>897</v>
       </c>
+      <c r="G592" t="s">
+        <v>896</v>
+      </c>
       <c r="N592">
         <v>5</v>
       </c>
@@ -39605,6 +41378,9 @@
       <c r="F593" t="s">
         <v>897</v>
       </c>
+      <c r="G593" t="s">
+        <v>896</v>
+      </c>
       <c r="H593" t="s">
         <v>898</v>
       </c>
@@ -39658,6 +41434,9 @@
       <c r="F594" t="s">
         <v>897</v>
       </c>
+      <c r="G594" t="s">
+        <v>896</v>
+      </c>
       <c r="H594" t="s">
         <v>898</v>
       </c>
@@ -39711,6 +41490,9 @@
       <c r="F595" t="s">
         <v>897</v>
       </c>
+      <c r="G595" t="s">
+        <v>896</v>
+      </c>
       <c r="H595">
         <v>1</v>
       </c>
@@ -39764,6 +41546,9 @@
       <c r="F596" t="s">
         <v>896</v>
       </c>
+      <c r="G596" t="s">
+        <v>897</v>
+      </c>
       <c r="H596">
         <v>2</v>
       </c>
@@ -39817,6 +41602,9 @@
       <c r="F597" t="s">
         <v>897</v>
       </c>
+      <c r="G597" t="s">
+        <v>896</v>
+      </c>
       <c r="H597">
         <v>2</v>
       </c>
@@ -39870,6 +41658,9 @@
       <c r="F598" t="s">
         <v>897</v>
       </c>
+      <c r="G598" t="s">
+        <v>896</v>
+      </c>
       <c r="N598">
         <v>5</v>
       </c>
@@ -39902,6 +41693,9 @@
       <c r="F599" t="s">
         <v>897</v>
       </c>
+      <c r="G599" t="s">
+        <v>896</v>
+      </c>
       <c r="N599">
         <v>5</v>
       </c>
@@ -39937,6 +41731,9 @@
       <c r="F600" t="s">
         <v>897</v>
       </c>
+      <c r="G600" t="s">
+        <v>896</v>
+      </c>
       <c r="N600">
         <v>5</v>
       </c>
@@ -39969,6 +41766,9 @@
       <c r="F601" t="s">
         <v>897</v>
       </c>
+      <c r="G601" t="s">
+        <v>896</v>
+      </c>
       <c r="N601">
         <v>5</v>
       </c>
@@ -40004,6 +41804,9 @@
       <c r="F602" t="s">
         <v>897</v>
       </c>
+      <c r="G602" t="s">
+        <v>896</v>
+      </c>
       <c r="N602">
         <v>5</v>
       </c>
@@ -40039,6 +41842,9 @@
       <c r="F603" t="s">
         <v>897</v>
       </c>
+      <c r="G603" t="s">
+        <v>896</v>
+      </c>
       <c r="N603">
         <v>1</v>
       </c>
@@ -40074,6 +41880,9 @@
       <c r="F604" t="s">
         <v>896</v>
       </c>
+      <c r="G604" t="s">
+        <v>896</v>
+      </c>
       <c r="N604">
         <v>5</v>
       </c>
@@ -40109,6 +41918,9 @@
       <c r="F605" t="s">
         <v>897</v>
       </c>
+      <c r="G605" t="s">
+        <v>897</v>
+      </c>
       <c r="H605">
         <v>3</v>
       </c>
@@ -40162,6 +41974,9 @@
       <c r="F606" t="s">
         <v>897</v>
       </c>
+      <c r="G606" t="s">
+        <v>896</v>
+      </c>
       <c r="H606">
         <v>3</v>
       </c>
@@ -40215,6 +42030,9 @@
       <c r="F607" t="s">
         <v>896</v>
       </c>
+      <c r="G607" t="s">
+        <v>896</v>
+      </c>
       <c r="H607">
         <v>3</v>
       </c>
@@ -40268,6 +42086,9 @@
       <c r="F608" t="s">
         <v>896</v>
       </c>
+      <c r="G608" t="s">
+        <v>896</v>
+      </c>
       <c r="H608">
         <v>3</v>
       </c>
@@ -40321,6 +42142,9 @@
       <c r="F609" t="s">
         <v>897</v>
       </c>
+      <c r="G609" t="s">
+        <v>896</v>
+      </c>
       <c r="H609">
         <v>3</v>
       </c>
@@ -40374,6 +42198,9 @@
       <c r="F610" t="s">
         <v>897</v>
       </c>
+      <c r="G610" t="s">
+        <v>896</v>
+      </c>
       <c r="H610">
         <v>3</v>
       </c>
@@ -40427,6 +42254,9 @@
       <c r="F611" t="s">
         <v>896</v>
       </c>
+      <c r="G611" t="s">
+        <v>896</v>
+      </c>
       <c r="H611">
         <v>3</v>
       </c>
@@ -40480,6 +42310,9 @@
       <c r="F612" t="s">
         <v>896</v>
       </c>
+      <c r="G612" t="s">
+        <v>896</v>
+      </c>
       <c r="H612">
         <v>3</v>
       </c>
@@ -40533,6 +42366,9 @@
       <c r="F613" t="s">
         <v>896</v>
       </c>
+      <c r="G613" t="s">
+        <v>896</v>
+      </c>
       <c r="H613">
         <v>3</v>
       </c>
@@ -40586,6 +42422,9 @@
       <c r="F614" t="s">
         <v>897</v>
       </c>
+      <c r="G614" t="s">
+        <v>897</v>
+      </c>
       <c r="H614">
         <v>3</v>
       </c>
@@ -40687,6 +42526,9 @@
       <c r="F615" t="s">
         <v>897</v>
       </c>
+      <c r="G615" t="s">
+        <v>896</v>
+      </c>
       <c r="H615">
         <v>2</v>
       </c>
@@ -40740,6 +42582,9 @@
       <c r="F616" t="s">
         <v>897</v>
       </c>
+      <c r="G616" t="s">
+        <v>897</v>
+      </c>
       <c r="H616" t="s">
         <v>898</v>
       </c>
@@ -40793,6 +42638,9 @@
       <c r="F617" t="s">
         <v>896</v>
       </c>
+      <c r="G617" t="s">
+        <v>896</v>
+      </c>
       <c r="H617" t="s">
         <v>898</v>
       </c>
@@ -40846,6 +42694,9 @@
       <c r="F618" t="s">
         <v>897</v>
       </c>
+      <c r="G618" t="s">
+        <v>896</v>
+      </c>
       <c r="N618">
         <v>5</v>
       </c>
@@ -40881,6 +42732,9 @@
       <c r="F619" t="s">
         <v>896</v>
       </c>
+      <c r="G619" t="s">
+        <v>896</v>
+      </c>
       <c r="N619">
         <v>5</v>
       </c>
@@ -40916,6 +42770,9 @@
       <c r="F620" t="s">
         <v>896</v>
       </c>
+      <c r="G620" t="s">
+        <v>896</v>
+      </c>
       <c r="N620">
         <v>5</v>
       </c>
@@ -40951,6 +42808,9 @@
       <c r="F621" t="s">
         <v>897</v>
       </c>
+      <c r="G621" t="s">
+        <v>897</v>
+      </c>
       <c r="H621">
         <v>1</v>
       </c>
@@ -41004,6 +42864,9 @@
       <c r="F622" t="s">
         <v>897</v>
       </c>
+      <c r="G622" t="s">
+        <v>897</v>
+      </c>
       <c r="H622">
         <v>1</v>
       </c>
@@ -41057,6 +42920,9 @@
       <c r="F623" t="s">
         <v>897</v>
       </c>
+      <c r="G623" t="s">
+        <v>897</v>
+      </c>
       <c r="H623">
         <v>1</v>
       </c>
@@ -41110,6 +42976,9 @@
       <c r="F624" t="s">
         <v>897</v>
       </c>
+      <c r="G624" t="s">
+        <v>896</v>
+      </c>
       <c r="H624">
         <v>2</v>
       </c>
@@ -41163,6 +43032,9 @@
       <c r="F625" t="s">
         <v>897</v>
       </c>
+      <c r="G625" t="s">
+        <v>896</v>
+      </c>
       <c r="N625">
         <v>5</v>
       </c>
@@ -41198,6 +43070,9 @@
       <c r="F626" t="s">
         <v>896</v>
       </c>
+      <c r="G626" t="s">
+        <v>896</v>
+      </c>
       <c r="N626">
         <v>5</v>
       </c>
@@ -41233,6 +43108,9 @@
       <c r="F627" t="s">
         <v>897</v>
       </c>
+      <c r="G627" t="s">
+        <v>896</v>
+      </c>
       <c r="H627">
         <v>3</v>
       </c>
@@ -41286,6 +43164,9 @@
       <c r="F628" t="s">
         <v>897</v>
       </c>
+      <c r="G628" t="s">
+        <v>896</v>
+      </c>
       <c r="H628">
         <v>3</v>
       </c>
@@ -41339,6 +43220,9 @@
       <c r="F629" t="s">
         <v>897</v>
       </c>
+      <c r="G629" t="s">
+        <v>897</v>
+      </c>
       <c r="H629">
         <v>3</v>
       </c>
@@ -41392,6 +43276,9 @@
       <c r="F630" t="s">
         <v>897</v>
       </c>
+      <c r="G630" t="s">
+        <v>897</v>
+      </c>
       <c r="H630">
         <v>3</v>
       </c>
@@ -41445,6 +43332,9 @@
       <c r="F631" t="s">
         <v>897</v>
       </c>
+      <c r="G631" t="s">
+        <v>897</v>
+      </c>
       <c r="H631">
         <v>3</v>
       </c>
@@ -41498,6 +43388,9 @@
       <c r="F632" t="s">
         <v>897</v>
       </c>
+      <c r="G632" t="s">
+        <v>897</v>
+      </c>
       <c r="H632">
         <v>3</v>
       </c>
@@ -41551,6 +43444,9 @@
       <c r="F633" t="s">
         <v>897</v>
       </c>
+      <c r="G633" t="s">
+        <v>896</v>
+      </c>
       <c r="H633">
         <v>1</v>
       </c>
@@ -41604,6 +43500,9 @@
       <c r="F634" t="s">
         <v>897</v>
       </c>
+      <c r="G634" t="s">
+        <v>896</v>
+      </c>
       <c r="N634">
         <v>5</v>
       </c>
@@ -41639,6 +43538,9 @@
       <c r="F635" t="s">
         <v>897</v>
       </c>
+      <c r="G635" t="s">
+        <v>896</v>
+      </c>
       <c r="N635">
         <v>5</v>
       </c>
@@ -41674,6 +43576,9 @@
       <c r="F636" t="s">
         <v>897</v>
       </c>
+      <c r="G636" t="s">
+        <v>896</v>
+      </c>
       <c r="N636">
         <v>5</v>
       </c>
@@ -41709,6 +43614,9 @@
       <c r="F637" t="s">
         <v>897</v>
       </c>
+      <c r="G637" t="s">
+        <v>896</v>
+      </c>
       <c r="H637">
         <v>2</v>
       </c>
@@ -41762,6 +43670,9 @@
       <c r="F638" t="s">
         <v>897</v>
       </c>
+      <c r="G638" t="s">
+        <v>896</v>
+      </c>
       <c r="H638">
         <v>2</v>
       </c>
@@ -41815,6 +43726,9 @@
       <c r="F639" t="s">
         <v>897</v>
       </c>
+      <c r="G639" t="s">
+        <v>896</v>
+      </c>
       <c r="H639">
         <v>2</v>
       </c>
@@ -41868,6 +43782,9 @@
       <c r="F640" t="s">
         <v>896</v>
       </c>
+      <c r="G640" t="s">
+        <v>897</v>
+      </c>
       <c r="H640">
         <v>3</v>
       </c>
@@ -41921,6 +43838,9 @@
       <c r="F641" t="s">
         <v>896</v>
       </c>
+      <c r="G641" t="s">
+        <v>897</v>
+      </c>
       <c r="H641">
         <v>3</v>
       </c>
@@ -41974,6 +43894,9 @@
       <c r="F642" t="s">
         <v>896</v>
       </c>
+      <c r="G642" t="s">
+        <v>897</v>
+      </c>
       <c r="H642">
         <v>3</v>
       </c>
@@ -42027,6 +43950,9 @@
       <c r="F643" t="s">
         <v>896</v>
       </c>
+      <c r="G643" t="s">
+        <v>896</v>
+      </c>
       <c r="H643">
         <v>3</v>
       </c>
@@ -42080,6 +44006,9 @@
       <c r="F644" t="s">
         <v>897</v>
       </c>
+      <c r="G644" t="s">
+        <v>896</v>
+      </c>
       <c r="N644">
         <v>5</v>
       </c>
@@ -42115,6 +44044,9 @@
       <c r="F645" t="s">
         <v>897</v>
       </c>
+      <c r="G645" t="s">
+        <v>897</v>
+      </c>
       <c r="H645" t="s">
         <v>898</v>
       </c>
@@ -42216,6 +44148,9 @@
       <c r="F646" t="s">
         <v>897</v>
       </c>
+      <c r="G646" t="s">
+        <v>897</v>
+      </c>
       <c r="H646">
         <v>3</v>
       </c>
@@ -42317,6 +44252,9 @@
       <c r="F647" t="s">
         <v>897</v>
       </c>
+      <c r="G647" t="s">
+        <v>897</v>
+      </c>
       <c r="H647">
         <v>3</v>
       </c>
@@ -42418,6 +44356,9 @@
       <c r="F648" t="s">
         <v>897</v>
       </c>
+      <c r="G648" t="s">
+        <v>897</v>
+      </c>
       <c r="H648">
         <v>1</v>
       </c>
@@ -42519,6 +44460,9 @@
       <c r="F649" t="s">
         <v>897</v>
       </c>
+      <c r="G649" t="s">
+        <v>897</v>
+      </c>
       <c r="H649">
         <v>1</v>
       </c>
@@ -42620,6 +44564,9 @@
       <c r="F650" t="s">
         <v>897</v>
       </c>
+      <c r="G650" t="s">
+        <v>897</v>
+      </c>
       <c r="H650">
         <v>1</v>
       </c>
@@ -42721,6 +44668,9 @@
       <c r="F651" t="s">
         <v>897</v>
       </c>
+      <c r="G651" t="s">
+        <v>897</v>
+      </c>
       <c r="H651">
         <v>1</v>
       </c>
@@ -42822,6 +44772,9 @@
       <c r="F652" t="s">
         <v>897</v>
       </c>
+      <c r="G652" t="s">
+        <v>897</v>
+      </c>
       <c r="H652">
         <v>1</v>
       </c>
@@ -42923,6 +44876,9 @@
       <c r="F653" t="s">
         <v>897</v>
       </c>
+      <c r="G653" t="s">
+        <v>897</v>
+      </c>
       <c r="H653">
         <v>1</v>
       </c>
@@ -43024,6 +44980,9 @@
       <c r="F654" t="s">
         <v>897</v>
       </c>
+      <c r="G654" t="s">
+        <v>897</v>
+      </c>
       <c r="H654">
         <v>1</v>
       </c>
@@ -43125,6 +45084,9 @@
       <c r="F655" t="s">
         <v>897</v>
       </c>
+      <c r="G655" t="s">
+        <v>897</v>
+      </c>
       <c r="H655">
         <v>1</v>
       </c>
@@ -43226,6 +45188,9 @@
       <c r="F656" t="s">
         <v>897</v>
       </c>
+      <c r="G656" t="s">
+        <v>897</v>
+      </c>
       <c r="H656">
         <v>1</v>
       </c>
@@ -43327,6 +45292,9 @@
       <c r="F657" t="s">
         <v>897</v>
       </c>
+      <c r="G657" t="s">
+        <v>897</v>
+      </c>
       <c r="H657">
         <v>1</v>
       </c>
@@ -43428,6 +45396,9 @@
       <c r="F658" t="s">
         <v>897</v>
       </c>
+      <c r="G658" t="s">
+        <v>897</v>
+      </c>
       <c r="H658">
         <v>1</v>
       </c>
@@ -43529,6 +45500,9 @@
       <c r="F659" t="s">
         <v>897</v>
       </c>
+      <c r="G659" t="s">
+        <v>897</v>
+      </c>
       <c r="H659">
         <v>1</v>
       </c>
@@ -43630,6 +45604,9 @@
       <c r="F660" t="s">
         <v>897</v>
       </c>
+      <c r="G660" t="s">
+        <v>897</v>
+      </c>
       <c r="H660">
         <v>1</v>
       </c>
@@ -43731,6 +45708,9 @@
       <c r="F661" t="s">
         <v>897</v>
       </c>
+      <c r="G661" t="s">
+        <v>897</v>
+      </c>
       <c r="H661">
         <v>1</v>
       </c>
@@ -43832,6 +45812,9 @@
       <c r="F662" t="s">
         <v>897</v>
       </c>
+      <c r="G662" t="s">
+        <v>897</v>
+      </c>
       <c r="H662">
         <v>1</v>
       </c>
@@ -43933,6 +45916,9 @@
       <c r="F663" t="s">
         <v>897</v>
       </c>
+      <c r="G663" t="s">
+        <v>897</v>
+      </c>
       <c r="H663">
         <v>1</v>
       </c>
@@ -44034,6 +46020,9 @@
       <c r="F664" t="s">
         <v>897</v>
       </c>
+      <c r="G664" t="s">
+        <v>897</v>
+      </c>
       <c r="H664">
         <v>1</v>
       </c>
@@ -44135,6 +46124,9 @@
       <c r="F665" t="s">
         <v>897</v>
       </c>
+      <c r="G665" t="s">
+        <v>897</v>
+      </c>
       <c r="H665">
         <v>1</v>
       </c>
@@ -44236,6 +46228,9 @@
       <c r="F666" t="s">
         <v>897</v>
       </c>
+      <c r="G666" t="s">
+        <v>897</v>
+      </c>
       <c r="H666">
         <v>1</v>
       </c>
@@ -44337,6 +46332,9 @@
       <c r="F667" t="s">
         <v>897</v>
       </c>
+      <c r="G667" t="s">
+        <v>897</v>
+      </c>
       <c r="H667">
         <v>2</v>
       </c>
@@ -44438,6 +46436,9 @@
       <c r="F668" t="s">
         <v>897</v>
       </c>
+      <c r="G668" t="s">
+        <v>897</v>
+      </c>
       <c r="H668">
         <v>2</v>
       </c>
@@ -44539,6 +46540,9 @@
       <c r="F669" t="s">
         <v>897</v>
       </c>
+      <c r="G669" t="s">
+        <v>897</v>
+      </c>
       <c r="H669">
         <v>2</v>
       </c>
@@ -44640,6 +46644,9 @@
       <c r="F670" t="s">
         <v>897</v>
       </c>
+      <c r="G670" t="s">
+        <v>897</v>
+      </c>
       <c r="H670">
         <v>3</v>
       </c>
@@ -44741,6 +46748,9 @@
       <c r="F671" t="s">
         <v>897</v>
       </c>
+      <c r="G671" t="s">
+        <v>896</v>
+      </c>
       <c r="H671">
         <v>1</v>
       </c>
@@ -44794,6 +46804,9 @@
       <c r="F672" t="s">
         <v>897</v>
       </c>
+      <c r="G672" t="s">
+        <v>896</v>
+      </c>
       <c r="N672">
         <v>5</v>
       </c>
@@ -44829,6 +46842,9 @@
       <c r="F673" t="s">
         <v>897</v>
       </c>
+      <c r="G673" t="s">
+        <v>896</v>
+      </c>
       <c r="N673">
         <v>5</v>
       </c>
@@ -44864,6 +46880,9 @@
       <c r="F674" t="s">
         <v>897</v>
       </c>
+      <c r="G674" t="s">
+        <v>896</v>
+      </c>
       <c r="N674">
         <v>5</v>
       </c>
@@ -44899,6 +46918,9 @@
       <c r="F675" t="s">
         <v>897</v>
       </c>
+      <c r="G675" t="s">
+        <v>897</v>
+      </c>
       <c r="H675">
         <v>3</v>
       </c>
@@ -45000,6 +47022,9 @@
       <c r="F676" t="s">
         <v>897</v>
       </c>
+      <c r="G676" t="s">
+        <v>897</v>
+      </c>
       <c r="H676">
         <v>3</v>
       </c>
@@ -45101,6 +47126,9 @@
       <c r="F677" t="s">
         <v>897</v>
       </c>
+      <c r="G677" t="s">
+        <v>897</v>
+      </c>
       <c r="H677">
         <v>1</v>
       </c>
@@ -45199,6 +47227,9 @@
       <c r="F678" t="s">
         <v>897</v>
       </c>
+      <c r="G678" t="s">
+        <v>897</v>
+      </c>
       <c r="H678">
         <v>1</v>
       </c>
@@ -45297,6 +47328,9 @@
       <c r="F679" t="s">
         <v>897</v>
       </c>
+      <c r="G679" t="s">
+        <v>897</v>
+      </c>
       <c r="H679">
         <v>1</v>
       </c>
@@ -45395,6 +47429,9 @@
       <c r="F680" t="s">
         <v>897</v>
       </c>
+      <c r="G680" t="s">
+        <v>897</v>
+      </c>
       <c r="H680">
         <v>1</v>
       </c>
@@ -45493,6 +47530,9 @@
       <c r="F681" t="s">
         <v>897</v>
       </c>
+      <c r="G681" t="s">
+        <v>897</v>
+      </c>
       <c r="H681">
         <v>1</v>
       </c>
@@ -45594,6 +47634,9 @@
       <c r="F682" t="s">
         <v>897</v>
       </c>
+      <c r="G682" t="s">
+        <v>897</v>
+      </c>
       <c r="H682">
         <v>1</v>
       </c>
@@ -45695,6 +47738,9 @@
       <c r="F683" t="s">
         <v>897</v>
       </c>
+      <c r="G683" t="s">
+        <v>897</v>
+      </c>
       <c r="H683">
         <v>1</v>
       </c>
@@ -45796,6 +47842,9 @@
       <c r="F684" t="s">
         <v>897</v>
       </c>
+      <c r="G684" t="s">
+        <v>897</v>
+      </c>
       <c r="H684">
         <v>1</v>
       </c>
@@ -45897,6 +47946,9 @@
       <c r="F685" t="s">
         <v>897</v>
       </c>
+      <c r="G685" t="s">
+        <v>897</v>
+      </c>
       <c r="H685">
         <v>1</v>
       </c>
@@ -45998,6 +48050,9 @@
       <c r="F686" t="s">
         <v>897</v>
       </c>
+      <c r="G686" t="s">
+        <v>897</v>
+      </c>
       <c r="H686">
         <v>1</v>
       </c>
@@ -46096,6 +48151,9 @@
       <c r="F687" t="s">
         <v>897</v>
       </c>
+      <c r="G687" t="s">
+        <v>897</v>
+      </c>
       <c r="H687">
         <v>1</v>
       </c>
@@ -46194,6 +48252,9 @@
       <c r="F688" t="s">
         <v>897</v>
       </c>
+      <c r="G688" t="s">
+        <v>897</v>
+      </c>
       <c r="H688">
         <v>1</v>
       </c>
@@ -46295,6 +48356,9 @@
       <c r="F689" t="s">
         <v>897</v>
       </c>
+      <c r="G689" t="s">
+        <v>897</v>
+      </c>
       <c r="H689">
         <v>1</v>
       </c>
@@ -46396,6 +48460,9 @@
       <c r="F690" t="s">
         <v>897</v>
       </c>
+      <c r="G690" t="s">
+        <v>897</v>
+      </c>
       <c r="H690">
         <v>2</v>
       </c>
@@ -46497,6 +48564,9 @@
       <c r="F691" t="s">
         <v>897</v>
       </c>
+      <c r="G691" t="s">
+        <v>897</v>
+      </c>
       <c r="H691">
         <v>2</v>
       </c>
@@ -46598,6 +48668,9 @@
       <c r="F692" t="s">
         <v>897</v>
       </c>
+      <c r="G692" t="s">
+        <v>897</v>
+      </c>
       <c r="H692">
         <v>2</v>
       </c>
@@ -46699,6 +48772,9 @@
       <c r="F693" t="s">
         <v>897</v>
       </c>
+      <c r="G693" t="s">
+        <v>897</v>
+      </c>
       <c r="H693">
         <v>2</v>
       </c>
@@ -46800,6 +48876,9 @@
       <c r="F694" t="s">
         <v>897</v>
       </c>
+      <c r="G694" t="s">
+        <v>897</v>
+      </c>
       <c r="H694">
         <v>2</v>
       </c>
@@ -46901,6 +48980,9 @@
       <c r="F695" t="s">
         <v>897</v>
       </c>
+      <c r="G695" t="s">
+        <v>897</v>
+      </c>
       <c r="H695">
         <v>2</v>
       </c>
@@ -47002,6 +49084,9 @@
       <c r="F696" t="s">
         <v>897</v>
       </c>
+      <c r="G696" t="s">
+        <v>897</v>
+      </c>
       <c r="H696">
         <v>3</v>
       </c>
@@ -47103,6 +49188,9 @@
       <c r="F697" t="s">
         <v>897</v>
       </c>
+      <c r="G697" t="s">
+        <v>897</v>
+      </c>
       <c r="H697">
         <v>3</v>
       </c>
@@ -47204,6 +49292,9 @@
       <c r="F698" t="s">
         <v>897</v>
       </c>
+      <c r="G698" t="s">
+        <v>897</v>
+      </c>
       <c r="H698">
         <v>3</v>
       </c>
@@ -47305,6 +49396,9 @@
       <c r="F699" t="s">
         <v>897</v>
       </c>
+      <c r="G699" t="s">
+        <v>897</v>
+      </c>
       <c r="H699">
         <v>3</v>
       </c>
@@ -47406,6 +49500,9 @@
       <c r="F700" t="s">
         <v>897</v>
       </c>
+      <c r="G700" t="s">
+        <v>897</v>
+      </c>
       <c r="H700">
         <v>3</v>
       </c>
@@ -47507,6 +49604,9 @@
       <c r="F701" t="s">
         <v>897</v>
       </c>
+      <c r="G701" t="s">
+        <v>897</v>
+      </c>
       <c r="H701">
         <v>3</v>
       </c>
@@ -47608,6 +49708,9 @@
       <c r="F702" t="s">
         <v>897</v>
       </c>
+      <c r="G702" t="s">
+        <v>897</v>
+      </c>
       <c r="H702">
         <v>3</v>
       </c>
@@ -47709,6 +49812,9 @@
       <c r="F703" t="s">
         <v>897</v>
       </c>
+      <c r="G703" t="s">
+        <v>897</v>
+      </c>
       <c r="H703">
         <v>3</v>
       </c>
@@ -47810,6 +49916,9 @@
       <c r="F704" t="s">
         <v>897</v>
       </c>
+      <c r="G704" t="s">
+        <v>897</v>
+      </c>
       <c r="H704">
         <v>3</v>
       </c>
@@ -47911,6 +50020,9 @@
       <c r="F705" t="s">
         <v>897</v>
       </c>
+      <c r="G705" t="s">
+        <v>897</v>
+      </c>
       <c r="H705">
         <v>3</v>
       </c>
@@ -48012,6 +50124,9 @@
       <c r="F706" t="s">
         <v>897</v>
       </c>
+      <c r="G706" t="s">
+        <v>897</v>
+      </c>
       <c r="H706">
         <v>2</v>
       </c>
@@ -48113,6 +50228,9 @@
       <c r="F707" t="s">
         <v>897</v>
       </c>
+      <c r="G707" t="s">
+        <v>897</v>
+      </c>
       <c r="H707">
         <v>2</v>
       </c>
@@ -48214,6 +50332,9 @@
       <c r="F708" t="s">
         <v>897</v>
       </c>
+      <c r="G708" t="s">
+        <v>897</v>
+      </c>
       <c r="H708">
         <v>2</v>
       </c>
@@ -48267,6 +50388,9 @@
       <c r="F709" t="s">
         <v>897</v>
       </c>
+      <c r="G709" t="s">
+        <v>897</v>
+      </c>
       <c r="H709">
         <v>2</v>
       </c>
@@ -48320,6 +50444,9 @@
       <c r="F710" t="s">
         <v>897</v>
       </c>
+      <c r="G710" t="s">
+        <v>897</v>
+      </c>
       <c r="H710">
         <v>2</v>
       </c>
@@ -48373,6 +50500,9 @@
       <c r="F711" t="s">
         <v>897</v>
       </c>
+      <c r="G711" t="s">
+        <v>897</v>
+      </c>
       <c r="H711">
         <v>2</v>
       </c>
@@ -48426,6 +50556,9 @@
       <c r="F712" t="s">
         <v>897</v>
       </c>
+      <c r="G712" t="s">
+        <v>897</v>
+      </c>
       <c r="H712">
         <v>2</v>
       </c>
@@ -48479,6 +50612,9 @@
       <c r="F713" t="s">
         <v>897</v>
       </c>
+      <c r="G713" t="s">
+        <v>897</v>
+      </c>
       <c r="H713">
         <v>2</v>
       </c>
@@ -48532,6 +50668,9 @@
       <c r="F714" t="s">
         <v>896</v>
       </c>
+      <c r="G714" t="s">
+        <v>896</v>
+      </c>
       <c r="H714">
         <v>2</v>
       </c>
@@ -48585,6 +50724,9 @@
       <c r="F715" t="s">
         <v>897</v>
       </c>
+      <c r="G715" t="s">
+        <v>897</v>
+      </c>
       <c r="H715">
         <v>2</v>
       </c>
@@ -48638,6 +50780,9 @@
       <c r="F716" t="s">
         <v>897</v>
       </c>
+      <c r="G716" t="s">
+        <v>897</v>
+      </c>
       <c r="H716">
         <v>2</v>
       </c>
@@ -48691,6 +50836,9 @@
       <c r="F717" t="s">
         <v>897</v>
       </c>
+      <c r="G717" t="s">
+        <v>897</v>
+      </c>
       <c r="H717">
         <v>2</v>
       </c>
@@ -48744,6 +50892,9 @@
       <c r="F718" t="s">
         <v>897</v>
       </c>
+      <c r="G718" t="s">
+        <v>897</v>
+      </c>
       <c r="H718">
         <v>2</v>
       </c>
@@ -48797,6 +50948,9 @@
       <c r="F719" t="s">
         <v>897</v>
       </c>
+      <c r="G719" t="s">
+        <v>897</v>
+      </c>
       <c r="H719">
         <v>2</v>
       </c>
@@ -48850,6 +51004,9 @@
       <c r="F720" t="s">
         <v>897</v>
       </c>
+      <c r="G720" t="s">
+        <v>897</v>
+      </c>
       <c r="H720">
         <v>2</v>
       </c>
@@ -48903,6 +51060,9 @@
       <c r="F721" t="s">
         <v>897</v>
       </c>
+      <c r="G721" t="s">
+        <v>897</v>
+      </c>
       <c r="H721">
         <v>2</v>
       </c>
@@ -48956,6 +51116,9 @@
       <c r="F722" t="s">
         <v>897</v>
       </c>
+      <c r="G722" t="s">
+        <v>897</v>
+      </c>
       <c r="H722">
         <v>2</v>
       </c>
@@ -49009,6 +51172,9 @@
       <c r="F723" t="s">
         <v>897</v>
       </c>
+      <c r="G723" t="s">
+        <v>897</v>
+      </c>
       <c r="H723">
         <v>2</v>
       </c>
@@ -49062,6 +51228,9 @@
       <c r="F724" t="s">
         <v>897</v>
       </c>
+      <c r="G724" t="s">
+        <v>897</v>
+      </c>
       <c r="H724">
         <v>3</v>
       </c>
@@ -49115,6 +51284,9 @@
       <c r="F725" t="s">
         <v>897</v>
       </c>
+      <c r="G725" t="s">
+        <v>897</v>
+      </c>
       <c r="H725" t="s">
         <v>898</v>
       </c>
@@ -49168,6 +51340,9 @@
       <c r="F726" t="s">
         <v>896</v>
       </c>
+      <c r="G726" t="s">
+        <v>896</v>
+      </c>
       <c r="N726">
         <v>5</v>
       </c>
@@ -49203,6 +51378,9 @@
       <c r="F727" t="s">
         <v>896</v>
       </c>
+      <c r="G727" t="s">
+        <v>896</v>
+      </c>
       <c r="N727">
         <v>1</v>
       </c>
@@ -49238,6 +51416,9 @@
       <c r="F728" t="s">
         <v>896</v>
       </c>
+      <c r="G728" t="s">
+        <v>896</v>
+      </c>
       <c r="N728">
         <v>5</v>
       </c>
@@ -49273,6 +51454,9 @@
       <c r="F729" t="s">
         <v>896</v>
       </c>
+      <c r="G729" t="s">
+        <v>896</v>
+      </c>
       <c r="N729">
         <v>5</v>
       </c>
@@ -49305,6 +51489,9 @@
       <c r="F730" t="s">
         <v>896</v>
       </c>
+      <c r="G730" t="s">
+        <v>896</v>
+      </c>
       <c r="N730">
         <v>1</v>
       </c>
@@ -49337,6 +51524,9 @@
       <c r="F731" t="s">
         <v>897</v>
       </c>
+      <c r="G731" t="s">
+        <v>896</v>
+      </c>
       <c r="H731">
         <v>2</v>
       </c>
@@ -49390,6 +51580,9 @@
       <c r="F732" t="s">
         <v>897</v>
       </c>
+      <c r="G732" t="s">
+        <v>897</v>
+      </c>
       <c r="H732">
         <v>2</v>
       </c>
@@ -49443,6 +51636,9 @@
       <c r="F733" t="s">
         <v>897</v>
       </c>
+      <c r="G733" t="s">
+        <v>897</v>
+      </c>
       <c r="H733">
         <v>2</v>
       </c>
@@ -49496,6 +51692,9 @@
       <c r="F734" t="s">
         <v>897</v>
       </c>
+      <c r="G734" t="s">
+        <v>897</v>
+      </c>
       <c r="H734">
         <v>2</v>
       </c>
@@ -49549,6 +51748,9 @@
       <c r="F735" t="s">
         <v>897</v>
       </c>
+      <c r="G735" t="s">
+        <v>897</v>
+      </c>
       <c r="H735">
         <v>2</v>
       </c>
@@ -49602,6 +51804,9 @@
       <c r="F736" t="s">
         <v>896</v>
       </c>
+      <c r="G736" t="s">
+        <v>897</v>
+      </c>
       <c r="H736">
         <v>2</v>
       </c>
@@ -49655,6 +51860,9 @@
       <c r="F737" t="s">
         <v>896</v>
       </c>
+      <c r="G737" t="s">
+        <v>897</v>
+      </c>
       <c r="H737">
         <v>2</v>
       </c>
@@ -49708,6 +51916,9 @@
       <c r="F738" t="s">
         <v>896</v>
       </c>
+      <c r="G738" t="s">
+        <v>897</v>
+      </c>
       <c r="H738">
         <v>2</v>
       </c>
@@ -49761,6 +51972,9 @@
       <c r="F739" t="s">
         <v>897</v>
       </c>
+      <c r="G739" t="s">
+        <v>896</v>
+      </c>
       <c r="H739">
         <v>2</v>
       </c>
@@ -49813,6 +52027,9 @@
       </c>
       <c r="F740" t="s">
         <v>897</v>
+      </c>
+      <c r="G740" t="s">
+        <v>896</v>
       </c>
       <c r="H740">
         <v>2</v>
